--- a/Monthly GDP for Project.xlsx
+++ b/Monthly GDP for Project.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jonathanokane/Dropbox/NYU/Spring 2020/Data/Recession Predictor/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wesch\OneDrive\Documents\RStudio\recession_predictR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51A8C42A-4A86-D146-ADE5-174594C28C6F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{369EA232-5A90-4FED-9507-334AB3BF0F1A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Monthly GDP" sheetId="4" r:id="rId1"/>
@@ -91,12 +91,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -413,20 +414,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{193AEE4A-BA1F-DD4C-80AC-7DE24BE31259}">
   <dimension ref="A1:E877"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="A1:E1"/>
+    <sheetView tabSelected="1" topLeftCell="A858" workbookViewId="0">
+      <selection activeCell="A878" sqref="A878"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.83203125" customWidth="1"/>
-    <col min="2" max="2" width="17.83203125" customWidth="1"/>
+    <col min="1" max="1" width="14.77734375" customWidth="1"/>
+    <col min="2" max="2" width="17.77734375" customWidth="1"/>
     <col min="3" max="3" width="29.6640625" customWidth="1"/>
     <col min="4" max="4" width="25.33203125" customWidth="1"/>
-    <col min="5" max="5" width="22.83203125" customWidth="1"/>
+    <col min="5" max="5" width="22.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -443,7 +444,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>17227</v>
       </c>
@@ -451,7 +452,7 @@
         <v>2031.2536666666665</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>17258</v>
       </c>
@@ -463,7 +464,7 @@
         <v>-1.06819028404459E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>17288</v>
       </c>
@@ -475,7 +476,7 @@
         <v>-1.0691419900130228E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>17319</v>
       </c>
@@ -487,7 +488,7 @@
         <v>-8.2626969825874141E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>17349</v>
       </c>
@@ -499,7 +500,7 @@
         <v>-8.2683902497464601E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>17380</v>
       </c>
@@ -511,7 +512,7 @@
         <v>-8.2740913680012795E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>17411</v>
       </c>
@@ -523,7 +524,7 @@
         <v>6.2405772157955397E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>17441</v>
       </c>
@@ -535,7 +536,7 @@
         <v>6.2082910437109007E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>17472</v>
       </c>
@@ -547,7 +548,7 @@
         <v>6.176337223582351E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>17502</v>
       </c>
@@ -559,7 +560,7 @@
         <v>6.0019870249348628E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>17533</v>
       </c>
@@ -571,7 +572,7 @@
         <v>5.9721164915632841E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>17564</v>
       </c>
@@ -583,7 +584,7 @@
         <v>5.9425418042305722E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>17593</v>
       </c>
@@ -599,7 +600,7 @@
         <v>3.2610894979307518E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>17624</v>
       </c>
@@ -615,7 +616,7 @@
         <v>3.9186057149577284E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>17654</v>
       </c>
@@ -631,7 +632,7 @@
         <v>4.5772940844006217E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>17685</v>
       </c>
@@ -647,7 +648,7 @@
         <v>4.849170797189549E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>17715</v>
       </c>
@@ -663,7 +664,7 @@
         <v>5.1214223028794116E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>17746</v>
       </c>
@@ -679,7 +680,7 @@
         <v>5.3940493770052347E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>17777</v>
       </c>
@@ -695,7 +696,7 @@
         <v>4.8864250729309278E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>17807</v>
       </c>
@@ -711,7 +712,7 @@
         <v>4.3840396709435063E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>17838</v>
       </c>
@@ -727,7 +728,7 @@
         <v>3.8868124857975563E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>17868</v>
       </c>
@@ -743,7 +744,7 @@
         <v>2.8937144450740533E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>17899</v>
       </c>
@@ -759,7 +760,7 @@
         <v>1.9104766765208673E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>17930</v>
       </c>
@@ -775,7 +776,7 @@
         <v>9.369530545532502E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>17958</v>
       </c>
@@ -791,7 +792,7 @@
         <v>2.7048141878468867E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>17989</v>
       </c>
@@ -807,7 +808,7 @@
         <v>-3.8873593568557645E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>18019</v>
       </c>
@@ -823,7 +824,7 @@
         <v>-1.0408168077530576E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>18050</v>
       </c>
@@ -839,7 +840,7 @@
         <v>-8.8952722665011294E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>18080</v>
       </c>
@@ -855,7 +856,7 @@
         <v>-7.3881326963631151E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>18111</v>
       </c>
@@ -871,7 +872,7 @@
         <v>-5.8867165776203892E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>18142</v>
       </c>
@@ -887,7 +888,7 @@
         <v>-9.0369375721952999E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>18172</v>
       </c>
@@ -903,7 +904,7 @@
         <v>-1.2184813574570193E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>18203</v>
       </c>
@@ -919,7 +920,7 @@
         <v>-1.5330347202153094E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>18233</v>
       </c>
@@ -935,7 +936,7 @@
         <v>2.1723704592752475E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>18264</v>
       </c>
@@ -951,7 +952,7 @@
         <v>1.9837364808807829E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>18295</v>
       </c>
@@ -967,7 +968,7 @@
         <v>3.7666903183093133E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>18323</v>
       </c>
@@ -983,7 +984,7 @@
         <v>4.9409113616537902E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>18354</v>
       </c>
@@ -999,7 +1000,7 @@
         <v>6.1178086425923775E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>18384</v>
       </c>
@@ -1015,7 +1016,7 @@
         <v>7.2973913209237573E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>18415</v>
       </c>
@@ -1031,7 +1032,7 @@
         <v>8.3067956517251629E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>18445</v>
       </c>
@@ -1047,7 +1048,7 @@
         <v>9.3092999759563505E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>18476</v>
       </c>
@@ -1063,7 +1064,7 @@
         <v>0.10304974802409773</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>18507</v>
       </c>
@@ -1079,7 +1080,7 @@
         <v>0.11320429261192133</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>18537</v>
       </c>
@@ -1095,7 +1096,7 @@
         <v>0.12341597325721092</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>18568</v>
       </c>
@@ -1111,7 +1112,7 @@
         <v>0.13368527354725954</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>18598</v>
       </c>
@@ -1127,7 +1128,7 @@
         <v>0.124091655927482</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>18629</v>
       </c>
@@ -1143,7 +1144,7 @@
         <v>0.11474298110551701</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>18660</v>
       </c>
@@ -1159,7 +1160,7 @@
         <v>0.10562998656214187</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>18688</v>
       </c>
@@ -1175,7 +1176,7 @@
         <v>0.1008247535095709</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>18719</v>
       </c>
@@ -1191,7 +1192,7 @@
         <v>9.6115274692181979E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <v>18749</v>
       </c>
@@ -1207,7 +1208,7 @@
         <v>9.1498716193198493E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>18780</v>
       </c>
@@ -1223,7 +1224,7 @@
         <v>8.5020773137228792E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
         <v>18810</v>
       </c>
@@ -1239,7 +1240,7 @@
         <v>7.8705527214627535E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>18841</v>
       </c>
@@ -1255,7 +1256,7 @@
         <v>7.2546925098588261E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
         <v>18872</v>
       </c>
@@ -1271,7 +1272,7 @@
         <v>6.6527163999247116E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>18902</v>
       </c>
@@ -1287,7 +1288,7 @@
         <v>6.0583277129542056E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
         <v>18933</v>
       </c>
@@ -1303,7 +1304,7 @@
         <v>5.4713838973083809E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>18963</v>
       </c>
@@ -1319,7 +1320,7 @@
         <v>5.3700223412132327E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
         <v>18994</v>
       </c>
@@ -1335,7 +1336,7 @@
         <v>5.2695703205619893E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>19025</v>
       </c>
@@ -1351,7 +1352,7 @@
         <v>5.1700156478974829E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
         <v>19054</v>
       </c>
@@ -1367,7 +1368,7 @@
         <v>4.6411382227370478E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>19085</v>
       </c>
@@ -1383,7 +1384,7 @@
         <v>4.1183003955696559E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
         <v>19115</v>
       </c>
@@ -1399,7 +1400,7 @@
         <v>3.6013992985602997E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>19146</v>
       </c>
@@ -1415,7 +1416,7 @@
         <v>3.1421085246255039E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
         <v>19176</v>
       </c>
@@ -1431,7 +1432,7 @@
         <v>2.6890428211755281E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>19207</v>
       </c>
@@ -1447,7 +1448,7 @@
         <v>2.2420764813812031E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
         <v>19238</v>
       </c>
@@ -1463,7 +1464,7 @@
         <v>3.2855282494526433E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>19268</v>
       </c>
@@ -1479,7 +1480,7 @@
         <v>4.3274501940536073E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
         <v>19299</v>
       </c>
@@ -1495,7 +1496,7 @@
         <v>5.3678456770723533E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>19329</v>
       </c>
@@ -1511,7 +1512,7 @@
         <v>5.6444364575253599E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
         <v>19360</v>
       </c>
@@ -1527,7 +1528,7 @@
         <v>5.9190708367183195E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>19391</v>
       </c>
@@ -1543,7 +1544,7 @@
         <v>6.191769498730583E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
         <v>19419</v>
       </c>
@@ -1559,7 +1560,7 @@
         <v>6.3890022999500945E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>19450</v>
       </c>
@@ -1575,7 +1576,7 @@
         <v>6.5859522987859659E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
         <v>19480</v>
       </c>
@@ -1591,7 +1592,7 @@
         <v>6.782620103047024E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>19511</v>
       </c>
@@ -1607,7 +1608,7 @@
         <v>6.3264870315139679E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
         <v>19541</v>
       </c>
@@ -1623,7 +1624,7 @@
         <v>5.8725385754774422E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>19572</v>
       </c>
@@ -1639,7 +1640,7 @@
         <v>5.4207590778509375E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
         <v>19603</v>
       </c>
@@ -1655,7 +1656,7 @@
         <v>3.7529269013656684E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>19633</v>
       </c>
@@ -1671,7 +1672,7 @@
         <v>2.1208289412276912E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
         <v>19664</v>
       </c>
@@ -1687,7 +1688,7 @@
         <v>5.2332893230099273E-3</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>19694</v>
       </c>
@@ -1703,7 +1704,7 @@
         <v>-2.5488121032177795E-3</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3">
         <v>19725</v>
       </c>
@@ -1719,7 +1720,7 @@
         <v>-1.0235655395085053E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>19756</v>
       </c>
@@ -1735,7 +1736,7 @@
         <v>-1.7828978948090209E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3">
         <v>19784</v>
       </c>
@@ -1751,7 +1752,7 @@
         <v>-1.9997241946712346E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>19815</v>
       </c>
@@ -1767,7 +1768,7 @@
         <v>-2.215438867263576E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3">
         <v>19845</v>
       </c>
@@ -1783,7 +1784,7 @@
         <v>-2.4300504393813316E-2</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>19876</v>
       </c>
@@ -1799,7 +1800,7 @@
         <v>-1.8787030166092313E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3">
         <v>19906</v>
       </c>
@@ -1815,7 +1816,7 @@
         <v>-1.3252795417308746E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>19937</v>
       </c>
@@ -1831,7 +1832,7 @@
         <v>-7.6976826683030977E-3</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3">
         <v>19968</v>
       </c>
@@ -1847,7 +1848,7 @@
         <v>3.8403559960065426E-3</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
         <v>19998</v>
       </c>
@@ -1863,7 +1864,7 @@
         <v>1.5496037492020364E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="3">
         <v>20029</v>
       </c>
@@ -1879,7 +1880,7 @@
         <v>2.7271170283968089E-2</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
         <v>20059</v>
       </c>
@@ -1895,7 +1896,7 @@
         <v>3.8706692988179185E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="3">
         <v>20090</v>
       </c>
@@ -1911,7 +1912,7 @@
         <v>5.017877435696981E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
         <v>20121</v>
       </c>
@@ -1927,7 +1928,7 @@
         <v>6.1687589984734392E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="3">
         <v>20149</v>
       </c>
@@ -1943,7 +1944,7 @@
         <v>6.7058443166271964E-2</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
         <v>20180</v>
       </c>
@@ -1959,7 +1960,7 @@
         <v>7.2425396676145171E-2</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="3">
         <v>20210</v>
       </c>
@@ -1975,7 +1976,7 @@
         <v>7.7788454760026063E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
         <v>20241</v>
       </c>
@@ -1991,7 +1992,7 @@
         <v>7.8579854722531692E-2</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="3">
         <v>20271</v>
       </c>
@@ -2007,7 +2008,7 @@
         <v>7.9365340686930325E-2</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
         <v>20302</v>
       </c>
@@ -2023,7 +2024,7 @@
         <v>8.01449786979129E-2</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="3">
         <v>20333</v>
       </c>
@@ -2039,7 +2040,7 @@
         <v>7.5293078904676625E-2</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
         <v>20363</v>
       </c>
@@ -2055,7 +2056,7 @@
         <v>7.0503655009583846E-2</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="3">
         <v>20394</v>
       </c>
@@ -2071,7 +2072,7 @@
         <v>6.5775508017831968E-2</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
         <v>20424</v>
       </c>
@@ -2087,7 +2088,7 @@
         <v>5.4357308127562426E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="3">
         <v>20455</v>
       </c>
@@ -2103,7 +2104,7 @@
         <v>4.3152466987142965E-2</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
         <v>20486</v>
       </c>
@@ -2119,7 +2120,7 @@
         <v>3.2155059767980457E-2</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="3">
         <v>20515</v>
       </c>
@@ -2135,7 +2136,7 @@
         <v>2.9414600021778696E-2</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
         <v>20546</v>
       </c>
@@ -2151,7 +2152,7 @@
         <v>2.6703549376710666E-2</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="3">
         <v>20576</v>
       </c>
@@ -2167,7 +2168,7 @@
         <v>2.4021436956013855E-2</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
         <v>20607</v>
       </c>
@@ -2183,7 +2184,7 @@
         <v>1.9127106330930444E-2</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="3">
         <v>20637</v>
       </c>
@@ -2199,7 +2200,7 @@
         <v>1.4276447091949862E-2</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
         <v>20668</v>
       </c>
@@ -2215,7 +2216,7 @@
         <v>9.4688773252880141E-3</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="3">
         <v>20699</v>
       </c>
@@ -2231,7 +2232,7 @@
         <v>1.2980200544442778E-2</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
         <v>20729</v>
       </c>
@@ -2247,7 +2248,7 @@
         <v>1.6477526884874517E-2</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="3">
         <v>20760</v>
       </c>
@@ -2263,7 +2264,7 @@
         <v>1.996093987189683E-2</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="2">
         <v>20790</v>
       </c>
@@ -2279,7 +2280,7 @@
         <v>2.3463252564189224E-2</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="3">
         <v>20821</v>
       </c>
@@ -2295,7 +2296,7 @@
         <v>2.697465758882233E-2</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="2">
         <v>20852</v>
       </c>
@@ -2311,7 +2312,7 @@
         <v>3.0495190398636841E-2</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="3">
         <v>20880</v>
       </c>
@@ -2327,7 +2328,7 @@
         <v>2.6914002473037574E-2</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="2">
         <v>20911</v>
       </c>
@@ -2343,7 +2344,7 @@
         <v>2.3352434826757109E-2</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="3">
         <v>20941</v>
       </c>
@@ -2359,7 +2360,7 @@
         <v>1.9810326659641744E-2</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="2">
         <v>20972</v>
       </c>
@@ -2375,7 +2376,7 @@
         <v>2.3447772387594483E-2</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="3">
         <v>21002</v>
       </c>
@@ -2391,7 +2392,7 @@
         <v>2.7087397830989492E-2</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="2">
         <v>21033</v>
       </c>
@@ -2407,7 +2408,7 @@
         <v>3.0729204949684369E-2</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="3">
         <v>21064</v>
       </c>
@@ -2423,7 +2424,7 @@
         <v>2.1569832155932667E-2</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
         <v>21094</v>
       </c>
@@ -2439,7 +2440,7 @@
         <v>1.2509873026705053E-2</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="3">
         <v>21125</v>
       </c>
@@ -2455,7 +2456,7 @@
         <v>3.5477177795214397E-3</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="2">
         <v>21155</v>
       </c>
@@ -2471,7 +2472,7 @@
         <v>-7.254957920035836E-3</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="3">
         <v>21186</v>
       </c>
@@ -2487,7 +2488,7 @@
         <v>-1.8011710034041534E-2</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="2">
         <v>21217</v>
       </c>
@@ -2503,7 +2504,7 @@
         <v>-2.8722830782105239E-2</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="3">
         <v>21245</v>
       </c>
@@ -2519,7 +2520,7 @@
         <v>-2.5883097637362212E-2</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="2">
         <v>21276</v>
       </c>
@@ -2535,7 +2536,7 @@
         <v>-2.3039210490938617E-2</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="3">
         <v>21306</v>
       </c>
@@ -2551,7 +2552,7 @@
         <v>-2.0191160221364603E-2</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="2">
         <v>21337</v>
       </c>
@@ -2567,7 +2568,7 @@
         <v>-1.584855520854371E-2</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="3">
         <v>21367</v>
       </c>
@@ -2583,7 +2584,7 @@
         <v>-1.153413437589319E-2</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="2">
         <v>21398</v>
       </c>
@@ -2599,7 +2600,7 @@
         <v>-7.2476242313639803E-3</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="3">
         <v>21429</v>
       </c>
@@ -2615,7 +2616,7 @@
         <v>3.9558154847722142E-3</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="2">
         <v>21459</v>
       </c>
@@ -2631,7 +2632,7 @@
         <v>1.5237064860254713E-2</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="3">
         <v>21490</v>
       </c>
@@ -2647,7 +2648,7 @@
         <v>2.6596937320338014E-2</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="2">
         <v>21520</v>
       </c>
@@ -2663,7 +2664,7 @@
         <v>4.2189483382857974E-2</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="3">
         <v>21551</v>
       </c>
@@ -2679,7 +2680,7 @@
         <v>5.8056620558134125E-2</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="2">
         <v>21582</v>
       </c>
@@ -2695,7 +2696,7 @@
         <v>7.4205666774708884E-2</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="3">
         <v>21610</v>
       </c>
@@ -2711,7 +2712,7 @@
         <v>7.9918841162211623E-2</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="2">
         <v>21641</v>
       </c>
@@ -2727,7 +2728,7 @@
         <v>8.5607086967365173E-2</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="3">
         <v>21671</v>
       </c>
@@ -2743,7 +2744,7 @@
         <v>9.1270566993199923E-2</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="2">
         <v>21702</v>
       </c>
@@ -2759,7 +2760,7 @@
         <v>8.3175200416652204E-2</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="3">
         <v>21732</v>
       </c>
@@ -2775,7 +2776,7 @@
         <v>7.5202813438567787E-2</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="2">
         <v>21763</v>
       </c>
@@ -2791,7 +2792,7 @@
         <v>6.7350624843805607E-2</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="3">
         <v>21794</v>
       </c>
@@ -2807,7 +2808,7 @@
         <v>6.0098432782224973E-2</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="2">
         <v>21824</v>
       </c>
@@ -2823,7 +2824,7 @@
         <v>5.2957604571785492E-2</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="3">
         <v>21855</v>
       </c>
@@ -2839,7 +2840,7 @@
         <v>4.5925594621109102E-2</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="2">
         <v>21885</v>
       </c>
@@ -2855,7 +2856,7 @@
         <v>4.7054932112585962E-2</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="3">
         <v>21916</v>
       </c>
@@ -2871,7 +2872,7 @@
         <v>4.8169987247174278E-2</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="2">
         <v>21947</v>
       </c>
@@ -2887,7 +2888,7 @@
         <v>4.9271029258767605E-2</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="3">
         <v>21976</v>
       </c>
@@ -2903,7 +2904,7 @@
         <v>3.9565496979097149E-2</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="2">
         <v>22007</v>
       </c>
@@ -2919,7 +2920,7 @@
         <v>3.0003799427266904E-2</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="3">
         <v>22037</v>
       </c>
@@ -2935,7 +2936,7 @@
         <v>2.0582762703688182E-2</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="2">
         <v>22068</v>
       </c>
@@ -2951,7 +2952,7 @@
         <v>2.2004688596263713E-2</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="3">
         <v>22098</v>
       </c>
@@ -2967,7 +2968,7 @@
         <v>2.3425939860688454E-2</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="2">
         <v>22129</v>
       </c>
@@ -2983,7 +2984,7 @@
         <v>2.4846516976961257E-2</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="3">
         <v>22160</v>
       </c>
@@ -2999,7 +3000,7 @@
         <v>1.9493456992108311E-2</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="2">
         <v>22190</v>
       </c>
@@ -3015,7 +3016,7 @@
         <v>1.4150549912097835E-2</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="3">
         <v>22221</v>
       </c>
@@ -3031,7 +3032,7 @@
         <v>8.8177668794687733E-3</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="2">
         <v>22251</v>
       </c>
@@ -3047,7 +3048,7 @@
         <v>3.5699698707306209E-3</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="3">
         <v>22282</v>
       </c>
@@ -3063,7 +3064,7 @@
         <v>-1.6003652588708216E-3</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="2">
         <v>22313</v>
       </c>
@@ -3079,7 +3080,7 @@
         <v>-6.6949410472144418E-3</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="3">
         <v>22341</v>
       </c>
@@ -3095,7 +3096,7 @@
         <v>7.246981070179472E-4</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="2">
         <v>22372</v>
       </c>
@@ -3111,7 +3112,7 @@
         <v>8.1711139159141577E-3</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="3">
         <v>22402</v>
       </c>
@@ -3127,7 +3128,7 @@
         <v>1.5644451592467731E-2</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="2">
         <v>22433</v>
       </c>
@@ -3143,7 +3144,7 @@
         <v>2.0479040020101646E-2</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="3">
         <v>22463</v>
       </c>
@@ -3159,7 +3160,7 @@
         <v>2.5297910106580081E-2</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="2">
         <v>22494</v>
       </c>
@@ -3175,7 +3176,7 @@
         <v>3.0101138383319188E-2</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="3">
         <v>22525</v>
       </c>
@@ -3191,7 +3192,7 @@
         <v>4.1289696686127031E-2</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="2">
         <v>22555</v>
       </c>
@@ -3207,7 +3208,7 @@
         <v>5.2574812998951448E-2</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="3">
         <v>22586</v>
       </c>
@@ -3223,7 +3224,7 @@
         <v>6.3957742691929387E-2</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="2">
         <v>22616</v>
       </c>
@@ -3239,7 +3240,7 @@
         <v>6.7880488717456278E-2</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="3">
         <v>22647</v>
       </c>
@@ -3255,7 +3256,7 @@
         <v>7.1785660712421123E-2</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="2">
         <v>22678</v>
       </c>
@@ -3271,7 +3272,7 @@
         <v>7.5673376511220969E-2</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="3">
         <v>22706</v>
       </c>
@@ -3287,7 +3288,7 @@
         <v>7.2843134528458711E-2</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="2">
         <v>22737</v>
       </c>
@@ -3303,7 +3304,7 @@
         <v>7.0044562651489978E-2</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="3">
         <v>22767</v>
       </c>
@@ -3319,7 +3320,7 @@
         <v>6.7277132260258818E-2</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="2">
         <v>22798</v>
       </c>
@@ -3335,7 +3336,7 @@
         <v>6.4834002105358293E-2</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="3">
         <v>22828</v>
       </c>
@@ -3351,7 +3352,7 @@
         <v>6.2421743066916995E-2</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="2">
         <v>22859</v>
       </c>
@@ -3367,7 +3368,7 @@
         <v>6.0039773692611098E-2</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="3">
         <v>22890</v>
       </c>
@@ -3383,7 +3384,7 @@
         <v>5.430973627642828E-2</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="2">
         <v>22920</v>
       </c>
@@ -3399,7 +3400,7 @@
         <v>4.8653646923524071E-2</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="3">
         <v>22951</v>
       </c>
@@ -3415,7 +3416,7 @@
         <v>4.3070083324584993E-2</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="2">
         <v>22981</v>
       </c>
@@ -3431,7 +3432,7 @@
         <v>4.0678310066320493E-2</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="3">
         <v>23012</v>
       </c>
@@ -3447,7 +3448,7 @@
         <v>3.8314642379906838E-2</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="2">
         <v>23043</v>
       </c>
@@ -3463,7 +3464,7 @@
         <v>3.5978587758931757E-2</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="3">
         <v>23071</v>
       </c>
@@ -3479,7 +3480,7 @@
         <v>3.6730694712798627E-2</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="2">
         <v>23102</v>
       </c>
@@ -3495,7 +3496,7 @@
         <v>3.7478297748267123E-2</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="3">
         <v>23132</v>
       </c>
@@ -3511,7 +3512,7 @@
         <v>3.8221437201470199E-2</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="2">
         <v>23163</v>
       </c>
@@ -3527,7 +3528,7 @@
         <v>4.1564380328085716E-2</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="3">
         <v>23193</v>
       </c>
@@ -3543,7 +3544,7 @@
         <v>4.4880166990222382E-2</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="2">
         <v>23224</v>
       </c>
@@ -3559,7 +3560,7 @@
         <v>4.8169126758357071E-2</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="3">
         <v>23255</v>
       </c>
@@ -3575,7 +3576,7 @@
         <v>4.9309455826771084E-2</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="2">
         <v>23285</v>
       </c>
@@ -3591,7 +3592,7 @@
         <v>5.0447290301620804E-2</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" s="3">
         <v>23316</v>
       </c>
@@ -3607,7 +3608,7 @@
         <v>5.1582638359753498E-2</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" s="2">
         <v>23346</v>
       </c>
@@ -3623,7 +3624,7 @@
         <v>5.513343738005963E-2</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" s="3">
         <v>23377</v>
       </c>
@@ -3639,7 +3640,7 @@
         <v>5.8658582614718228E-2</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" s="2">
         <v>23408</v>
       </c>
@@ -3655,7 +3656,7 @@
         <v>6.2158351077956489E-2</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" s="3">
         <v>23437</v>
       </c>
@@ -3671,7 +3672,7 @@
         <v>6.204047009190071E-2</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" s="2">
         <v>23468</v>
       </c>
@@ -3687,7 +3688,7 @@
         <v>6.1923464405041886E-2</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" s="3">
         <v>23498</v>
       </c>
@@ -3703,7 +3704,7 @@
         <v>6.1807324304429978E-2</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" s="2">
         <v>23529</v>
       </c>
@@ -3719,7 +3720,7 @@
         <v>5.9572229558356747E-2</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" s="3">
         <v>23559</v>
       </c>
@@ -3735,7 +3736,7 @@
         <v>5.7369419575360368E-2</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" s="2">
         <v>23590</v>
       </c>
@@ -3751,7 +3752,7 @@
         <v>5.5198199866676644E-2</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" s="3">
         <v>23621</v>
       </c>
@@ -3767,7 +3768,7 @@
         <v>5.398139121801198E-2</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" s="2">
         <v>23651</v>
       </c>
@@ -3783,7 +3784,7 @@
         <v>5.2769877657965356E-2</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" s="3">
         <v>23682</v>
       </c>
@@ -3799,7 +3800,7 @@
         <v>5.1563624698257815E-2</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" s="2">
         <v>23712</v>
       </c>
@@ -3815,7 +3816,7 @@
         <v>5.2647832533688391E-2</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" s="3">
         <v>23743</v>
       </c>
@@ -3831,7 +3832,7 @@
         <v>5.3717012836290309E-2</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" s="2">
         <v>23774</v>
       </c>
@@ -3847,7 +3848,7 @@
         <v>5.4771475886737371E-2</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" s="3">
         <v>23802</v>
       </c>
@@ -3863,7 +3864,7 @@
         <v>5.5383015632594235E-2</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" s="2">
         <v>23833</v>
       </c>
@@ -3879,7 +3880,7 @@
         <v>5.5990148787270218E-2</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" s="3">
         <v>23863</v>
       </c>
@@ -3895,7 +3896,7 @@
         <v>5.6592922808848874E-2</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" s="2">
         <v>23894</v>
       </c>
@@ -3911,7 +3912,7 @@
         <v>5.8908773257637707E-2</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" s="3">
         <v>23924</v>
       </c>
@@ -3927,7 +3928,7 @@
         <v>6.1200751969785742E-2</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" s="2">
         <v>23955</v>
       </c>
@@ -3943,7 +3944,7 @@
         <v>6.3469226156710967E-2</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" s="3">
         <v>23986</v>
       </c>
@@ -3959,7 +3960,7 @@
         <v>7.0534554620345497E-2</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" s="2">
         <v>24016</v>
       </c>
@@ -3975,7 +3976,7 @@
         <v>7.7585363450909425E-2</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" s="3">
         <v>24047</v>
       </c>
@@ -3991,7 +3992,7 @@
         <v>8.4621697360409531E-2</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" s="2">
         <v>24077</v>
       </c>
@@ -4007,7 +4008,7 @@
         <v>8.4673581392083849E-2</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" s="3">
         <v>24108</v>
       </c>
@@ -4023,7 +4024,7 @@
         <v>8.4724641730179046E-2</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" s="2">
         <v>24139</v>
       </c>
@@ -4039,7 +4040,7 @@
         <v>8.4774897835246998E-2</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" s="3">
         <v>24167</v>
       </c>
@@ -4055,7 +4056,7 @@
         <v>8.1456247302004264E-2</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" s="2">
         <v>24198</v>
       </c>
@@ -4071,7 +4072,7 @@
         <v>7.8165312388091102E-2</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" s="3">
         <v>24228</v>
       </c>
@@ -4087,7 +4088,7 @@
         <v>7.490174733793456E-2</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" s="2">
         <v>24259</v>
       </c>
@@ -4103,7 +4104,7 @@
         <v>7.000650882890623E-2</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" s="3">
         <v>24289</v>
       </c>
@@ -4119,7 +4120,7 @@
         <v>6.5182766797396208E-2</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" s="2">
         <v>24320</v>
       </c>
@@ -4135,7 +4136,7 @@
         <v>6.0428966256575838E-2</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" s="3">
         <v>24351</v>
       </c>
@@ -4151,7 +4152,7 @@
         <v>5.5224511677612165E-2</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" s="2">
         <v>24381</v>
       </c>
@@ -4167,7 +4168,7 @@
         <v>5.0098789666541521E-2</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" s="3">
         <v>24412</v>
       </c>
@@ -4183,7 +4184,7 @@
         <v>4.5050027045729968E-2</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" s="2">
         <v>24442</v>
       </c>
@@ -4199,7 +4200,7 @@
         <v>3.9698741929585425E-2</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" s="3">
         <v>24473</v>
       </c>
@@ -4215,7 +4216,7 @@
         <v>3.4432911824983099E-2</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" s="2">
         <v>24504</v>
       </c>
@@ -4231,7 +4232,7 @@
         <v>2.925050599168132E-2</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" s="3">
         <v>24532</v>
       </c>
@@ -4247,7 +4248,7 @@
         <v>2.8289779936476567E-2</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" s="2">
         <v>24563</v>
       </c>
@@ -4263,7 +4264,7 @@
         <v>2.733123691009021E-2</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" s="3">
         <v>24593</v>
       </c>
@@ -4279,7 +4280,7 @@
         <v>2.6374869480320692E-2</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" s="2">
         <v>24624</v>
       </c>
@@ -4295,7 +4296,7 @@
         <v>2.6713396066013535E-2</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" s="3">
         <v>24654</v>
       </c>
@@ -4311,7 +4312,7 @@
         <v>2.705002204999855E-2</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" s="2">
         <v>24685</v>
       </c>
@@ -4327,7 +4328,7 @@
         <v>2.7384763393392866E-2</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" s="3">
         <v>24716</v>
       </c>
@@ -4343,7 +4344,7 @@
         <v>2.7158153018372575E-2</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" s="2">
         <v>24746</v>
       </c>
@@ -4359,7 +4360,7 @@
         <v>2.6932775267756507E-2</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" s="3">
         <v>24777</v>
       </c>
@@ -4375,7 +4376,7 @@
         <v>2.6708620111718179E-2</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" s="2">
         <v>24807</v>
       </c>
@@ -4391,7 +4392,7 @@
         <v>3.0646082377323598E-2</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" s="3">
         <v>24838</v>
       </c>
@@ -4407,7 +4408,7 @@
         <v>3.4560434655990277E-2</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" s="2">
         <v>24869</v>
       </c>
@@ -4423,7 +4424,7 @@
         <v>3.8451879810150434E-2</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" s="3">
         <v>24898</v>
       </c>
@@ -4439,7 +4440,7 @@
         <v>4.4022169135325043E-2</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" s="2">
         <v>24929</v>
       </c>
@@ -4455,7 +4456,7 @@
         <v>4.9590184076482004E-2</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" s="3">
         <v>24959</v>
       </c>
@@ -4471,7 +4472,7 @@
         <v>5.5155926026304647E-2</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" s="2">
         <v>24990</v>
       </c>
@@ -4487,7 +4488,7 @@
         <v>5.455581540233144E-2</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" s="3">
         <v>25020</v>
       </c>
@@ -4503,7 +4504,7 @@
         <v>5.395946628082586E-2</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" s="2">
         <v>25051</v>
       </c>
@@ -4519,7 +4520,7 @@
         <v>5.3366843406545982E-2</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" s="3">
         <v>25082</v>
       </c>
@@ -4535,7 +4536,7 @@
         <v>5.2103459084828711E-2</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" s="2">
         <v>25112</v>
       </c>
@@ -4551,7 +4552,7 @@
         <v>5.0846393781516834E-2</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" s="3">
         <v>25143</v>
       </c>
@@ -4567,7 +4568,7 @@
         <v>4.9595600206505795E-2</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" s="2">
         <v>25173</v>
       </c>
@@ -4583,7 +4584,7 @@
         <v>4.7947097409003013E-2</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" s="3">
         <v>25204</v>
       </c>
@@ -4599,7 +4600,7 @@
         <v>4.6320708010401196E-2</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" s="2">
         <v>25235</v>
       </c>
@@ -4615,7 +4616,7 @@
         <v>4.4715990023764189E-2</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" s="3">
         <v>25263</v>
       </c>
@@ -4631,7 +4632,7 @@
         <v>3.9982619067760836E-2</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" s="2">
         <v>25294</v>
       </c>
@@ -4647,7 +4648,7 @@
         <v>3.5301391039875694E-2</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" s="3">
         <v>25324</v>
       </c>
@@ -4663,7 +4664,7 @@
         <v>3.06714490482571E-2</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" s="2">
         <v>25355</v>
       </c>
@@ -4679,7 +4680,7 @@
         <v>3.0279226628851203E-2</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270" s="3">
         <v>25385</v>
       </c>
@@ -4695,7 +4696,7 @@
         <v>2.9889020203616386E-2</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271" s="2">
         <v>25416</v>
       </c>
@@ -4711,7 +4712,7 @@
         <v>2.9500814269305412E-2</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272" s="3">
         <v>25447</v>
       </c>
@@ -4727,7 +4728,7 @@
         <v>2.6481513277420876E-2</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273" s="2">
         <v>25477</v>
       </c>
@@ -4743,7 +4744,7 @@
         <v>2.3470108244668275E-2</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274" s="3">
         <v>25508</v>
       </c>
@@ -4759,7 +4760,7 @@
         <v>2.0466568237684307E-2</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275" s="2">
         <v>25538</v>
       </c>
@@ -4775,7 +4776,7 @@
         <v>1.4667940391903935E-2</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276" s="3">
         <v>25569</v>
       </c>
@@ -4791,7 +4792,7 @@
         <v>8.9291909451927904E-3</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277" s="2">
         <v>25600</v>
       </c>
@@ -4807,7 +4808,7 @@
         <v>3.2493971777861645E-3</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278" s="3">
         <v>25628</v>
       </c>
@@ -4823,7 +4824,7 @@
         <v>2.7078982191919526E-3</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279" s="2">
         <v>25659</v>
       </c>
@@ -4839,7 +4840,7 @@
         <v>2.167494505207904E-3</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280" s="3">
         <v>25689</v>
       </c>
@@ -4855,7 +4856,7 @@
         <v>1.6281827163015326E-3</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281" s="2">
         <v>25720</v>
       </c>
@@ -4871,7 +4872,7 @@
         <v>2.4978954521549341E-3</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282" s="3">
         <v>25750</v>
       </c>
@@ -4887,7 +4888,7 @@
         <v>3.3637952723164447E-3</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283" s="2">
         <v>25781</v>
       </c>
@@ -4903,7 +4904,7 @@
         <v>4.2259071963002617E-3</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284" s="3">
         <v>25812</v>
       </c>
@@ -4919,7 +4920,7 @@
         <v>2.2679706669162768E-3</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285" s="2">
         <v>25842</v>
       </c>
@@ -4935,7 +4936,7 @@
         <v>3.0364766262629605E-4</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286" s="3">
         <v>25873</v>
       </c>
@@ -4951,7 +4952,7 @@
         <v>-1.66709311509965E-3</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287" s="2">
         <v>25903</v>
       </c>
@@ -4967,7 +4968,7 @@
         <v>7.8699641349596564E-3</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288" s="3">
         <v>25934</v>
       </c>
@@ -4983,7 +4984,7 @@
         <v>1.7416471470203695E-2</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289" s="2">
         <v>25965</v>
       </c>
@@ -4999,7 +5000,7 @@
         <v>2.6972442943454543E-2</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290" s="3">
         <v>25993</v>
       </c>
@@ -5015,7 +5016,7 @@
         <v>2.8338328118077818E-2</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291" s="2">
         <v>26024</v>
       </c>
@@ -5031,7 +5032,7 @@
         <v>2.9702922207364629E-2</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292" s="3">
         <v>26054</v>
       </c>
@@ -5047,7 +5048,7 @@
         <v>3.1066227041022677E-2</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293" s="2">
         <v>26085</v>
       </c>
@@ -5063,7 +5064,7 @@
         <v>3.0728419501035008E-2</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294" s="3">
         <v>26115</v>
       </c>
@@ -5079,7 +5080,7 @@
         <v>3.0392674721841987E-2</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295" s="2">
         <v>26146</v>
       </c>
@@ -5095,7 +5096,7 @@
         <v>3.0058973867138742E-2</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296" s="3">
         <v>26177</v>
       </c>
@@ -5111,7 +5112,7 @@
         <v>3.4564142402737925E-2</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297" s="2">
         <v>26207</v>
       </c>
@@ -5127,7 +5128,7 @@
         <v>3.910172877239694E-2</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298" s="3">
         <v>26238</v>
       </c>
@@ -5143,7 +5144,7 @@
         <v>4.367208414299667E-2</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299" s="2">
         <v>26268</v>
       </c>
@@ -5159,7 +5160,7 @@
         <v>4.0648325709189803E-2</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300" s="3">
         <v>26299</v>
       </c>
@@ -5175,7 +5176,7 @@
         <v>3.7678343582516434E-2</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301" s="2">
         <v>26330</v>
       </c>
@@ -5191,7 +5192,7 @@
         <v>3.4760715822843999E-2</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302" s="3">
         <v>26359</v>
       </c>
@@ -5207,7 +5208,7 @@
         <v>4.0712436463319387E-2</v>
       </c>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A303" s="2">
         <v>26390</v>
       </c>
@@ -5223,7 +5224,7 @@
         <v>4.6642763964396414E-2</v>
       </c>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A304" s="3">
         <v>26420</v>
       </c>
@@ -5239,7 +5240,7 @@
         <v>5.2551813463878744E-2</v>
       </c>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305" s="2">
         <v>26451</v>
       </c>
@@ -5255,7 +5256,7 @@
         <v>5.2976602972083627E-2</v>
       </c>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A306" s="3">
         <v>26481</v>
       </c>
@@ -5271,7 +5272,7 @@
         <v>5.3399074562768628E-2</v>
       </c>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A307" s="2">
         <v>26512</v>
       </c>
@@ -5287,7 +5288,7 @@
         <v>5.3819247156327056E-2</v>
       </c>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A308" s="3">
         <v>26543</v>
       </c>
@@ -5303,7 +5304,7 @@
         <v>5.8868980921677458E-2</v>
       </c>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A309" s="2">
         <v>26573</v>
       </c>
@@ -5319,7 +5320,7 @@
         <v>6.3910789659477496E-2</v>
       </c>
     </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A310" s="3">
         <v>26604</v>
       </c>
@@ -5335,7 +5336,7 @@
         <v>6.8944692011348688E-2</v>
       </c>
     </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A311" s="2">
         <v>26634</v>
       </c>
@@ -5351,7 +5352,7 @@
         <v>7.1196550347352602E-2</v>
       </c>
     </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A312" s="3">
         <v>26665</v>
       </c>
@@ -5367,7 +5368,7 @@
         <v>7.3421135953510228E-2</v>
       </c>
     </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A313" s="2">
         <v>26696</v>
       </c>
@@ -5383,7 +5384,7 @@
         <v>7.5618941306228302E-2</v>
       </c>
     </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A314" s="3">
         <v>26724</v>
       </c>
@@ -5399,7 +5400,7 @@
         <v>7.1415999237686448E-2</v>
       </c>
     </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A315" s="2">
         <v>26755</v>
       </c>
@@ -5415,7 +5416,7 @@
         <v>6.7275706957608553E-2</v>
       </c>
     </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A316" s="3">
         <v>26785</v>
       </c>
@@ -5431,7 +5432,7 @@
         <v>6.3196674026033309E-2</v>
       </c>
     </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A317" s="2">
         <v>26816</v>
       </c>
@@ -5447,7 +5448,7 @@
         <v>5.8002321594182789E-2</v>
       </c>
     </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A318" s="3">
         <v>26846</v>
       </c>
@@ -5463,7 +5464,7 @@
         <v>5.284046788222789E-2</v>
       </c>
     </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A319" s="2">
         <v>26877</v>
       </c>
@@ -5479,7 +5480,7 @@
         <v>4.7710808846556076E-2</v>
       </c>
     </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A320" s="3">
         <v>26908</v>
       </c>
@@ -5495,7 +5496,7 @@
         <v>4.5192075809379603E-2</v>
       </c>
     </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A321" s="2">
         <v>26938</v>
       </c>
@@ -5511,7 +5512,7 @@
         <v>4.2701149173412237E-2</v>
       </c>
     </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A322" s="3">
         <v>26969</v>
       </c>
@@ -5527,7 +5528,7 @@
         <v>4.0237570999252563E-2</v>
       </c>
     </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A323" s="2">
         <v>26999</v>
       </c>
@@ -5543,7 +5544,7 @@
         <v>2.8769662995218236E-2</v>
       </c>
     </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A324" s="3">
         <v>27030</v>
       </c>
@@ -5559,7 +5560,7 @@
         <v>1.7487890172629153E-2</v>
       </c>
     </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A325" s="2">
         <v>27061</v>
       </c>
@@ -5575,7 +5576,7 @@
         <v>6.3877572829453347E-3</v>
       </c>
     </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A326" s="3">
         <v>27089</v>
       </c>
@@ -5591,7 +5592,7 @@
         <v>3.5433783675926514E-3</v>
       </c>
     </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A327" s="2">
         <v>27120</v>
       </c>
@@ -5607,7 +5608,7 @@
         <v>7.194942895858967E-4</v>
       </c>
     </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A328" s="3">
         <v>27150</v>
       </c>
@@ -5623,7 +5624,7 @@
         <v>-2.0841156656144265E-3</v>
       </c>
     </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A329" s="2">
         <v>27181</v>
       </c>
@@ -5639,7 +5640,7 @@
         <v>-3.4810894273228929E-3</v>
       </c>
     </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A330" s="3">
         <v>27211</v>
       </c>
@@ -5655,7 +5656,7 @@
         <v>-4.8829782355435765E-3</v>
       </c>
     </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A331" s="2">
         <v>27242</v>
       </c>
@@ -5671,7 +5672,7 @@
         <v>-6.2898080752895264E-3</v>
       </c>
     </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A332" s="3">
         <v>27273</v>
       </c>
@@ -5687,7 +5688,7 @@
         <v>-1.0705685587392008E-2</v>
       </c>
     </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A333" s="2">
         <v>27303</v>
       </c>
@@ -5703,7 +5704,7 @@
         <v>-1.5093794403042081E-2</v>
       </c>
     </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A334" s="3">
         <v>27334</v>
       </c>
@@ -5719,7 +5720,7 @@
         <v>-1.9454395631254444E-2</v>
       </c>
     </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A335" s="2">
         <v>27364</v>
       </c>
@@ -5735,7 +5736,7 @@
         <v>-2.0626353654613024E-2</v>
       </c>
     </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A336" s="3">
         <v>27395</v>
       </c>
@@ -5751,7 +5752,7 @@
         <v>-2.1805067793024973E-2</v>
       </c>
     </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A337" s="2">
         <v>27426</v>
       </c>
@@ -5767,7 +5768,7 @@
         <v>-2.2990596636949218E-2</v>
       </c>
     </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A338" s="3">
         <v>27454</v>
       </c>
@@ -5783,7 +5784,7 @@
         <v>-2.1438815467966665E-2</v>
       </c>
     </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A339" s="2">
         <v>27485</v>
       </c>
@@ -5799,7 +5800,7 @@
         <v>-1.9889489228033352E-2</v>
       </c>
     </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A340" s="3">
         <v>27515</v>
       </c>
@@ -5815,7 +5816,7 @@
         <v>-1.8342612096180544E-2</v>
       </c>
     </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A341" s="2">
         <v>27546</v>
       </c>
@@ -5831,7 +5832,7 @@
         <v>-9.6216075927676881E-3</v>
       </c>
     </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A342" s="3">
         <v>27576</v>
       </c>
@@ -5847,7 +5848,7 @@
         <v>-8.4530455243394696E-4</v>
       </c>
     </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A343" s="2">
         <v>27607</v>
       </c>
@@ -5863,7 +5864,7 @@
         <v>7.9868246568049681E-3</v>
       </c>
     </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A344" s="3">
         <v>27638</v>
       </c>
@@ -5879,7 +5880,7 @@
         <v>1.3822718859517889E-2</v>
       </c>
     </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A345" s="2">
         <v>27668</v>
       </c>
@@ -5895,7 +5896,7 @@
         <v>1.9673753248310433E-2</v>
       </c>
     </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A346" s="3">
         <v>27699</v>
       </c>
@@ -5911,7 +5912,7 @@
         <v>2.5539986817473988E-2</v>
       </c>
     </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A347" s="2">
         <v>27729</v>
       </c>
@@ -5927,7 +5928,7 @@
         <v>3.7436875819666912E-2</v>
       </c>
     </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A348" s="3">
         <v>27760</v>
       </c>
@@ -5943,7 +5944,7 @@
         <v>4.9431102006732737E-2</v>
       </c>
     </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A349" s="2">
         <v>27791</v>
       </c>
@@ -5959,7 +5960,7 @@
         <v>6.1523864866092452E-2</v>
       </c>
     </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A350" s="3">
         <v>27820</v>
       </c>
@@ -5975,7 +5976,7 @@
         <v>6.1591470975500599E-2</v>
       </c>
     </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A351" s="2">
         <v>27851</v>
       </c>
@@ -5991,7 +5992,7 @@
         <v>6.1658756561624201E-2</v>
       </c>
     </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A352" s="3">
         <v>27881</v>
       </c>
@@ -6007,7 +6008,7 @@
         <v>6.1725723898493151E-2</v>
       </c>
     </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A353" s="2">
         <v>27912</v>
       </c>
@@ -6023,7 +6024,7 @@
         <v>5.7633339114602285E-2</v>
       </c>
     </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A354" s="3">
         <v>27942</v>
       </c>
@@ -6039,7 +6040,7 @@
         <v>5.3587125873386696E-2</v>
       </c>
     </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A355" s="2">
         <v>27973</v>
       </c>
@@ -6055,7 +6056,7 @@
         <v>4.9586307175719491E-2</v>
       </c>
     </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A356" s="3">
         <v>28004</v>
       </c>
@@ -6071,7 +6072,7 @@
         <v>4.7421068427020534E-2</v>
       </c>
     </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A357" s="2">
         <v>28034</v>
       </c>
@@ -6087,7 +6088,7 @@
         <v>4.5275093487399234E-2</v>
       </c>
     </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="358" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A358" s="3">
         <v>28065</v>
       </c>
@@ -6103,7 +6104,7 @@
         <v>4.3148126414503434E-2</v>
       </c>
     </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A359" s="2">
         <v>28095</v>
       </c>
@@ -6119,7 +6120,7 @@
         <v>3.9464672162993888E-2</v>
       </c>
     </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A360" s="3">
         <v>28126</v>
       </c>
@@ -6135,7 +6136,7 @@
         <v>3.5835623661409653E-2</v>
       </c>
     </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A361" s="2">
         <v>28157</v>
       </c>
@@ -6151,7 +6152,7 @@
         <v>3.2259784362000117E-2</v>
       </c>
     </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A362" s="3">
         <v>28185</v>
       </c>
@@ -6167,7 +6168,7 @@
         <v>3.6414494342189789E-2</v>
       </c>
     </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="363" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A363" s="2">
         <v>28216</v>
       </c>
@@ -6183,7 +6184,7 @@
         <v>4.054898129093424E-2</v>
       </c>
     </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A364" s="3">
         <v>28246</v>
       </c>
@@ -6199,7 +6200,7 @@
         <v>4.4663392503022557E-2</v>
       </c>
     </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A365" s="2">
         <v>28277</v>
       </c>
@@ -6215,7 +6216,7 @@
         <v>4.902778002889057E-2</v>
       </c>
     </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A366" s="3">
         <v>28307</v>
       </c>
@@ -6231,7 +6232,7 @@
         <v>5.337626022063964E-2</v>
       </c>
     </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="367" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A367" s="2">
         <v>28338</v>
       </c>
@@ -6247,7 +6248,7 @@
         <v>5.7708919888722426E-2</v>
       </c>
     </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="368" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A368" s="3">
         <v>28369</v>
       </c>
@@ -6263,7 +6264,7 @@
         <v>5.516718458753124E-2</v>
       </c>
     </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="369" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A369" s="2">
         <v>28399</v>
       </c>
@@ -6279,7 +6280,7 @@
         <v>5.2637672667965735E-2</v>
       </c>
     </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="370" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A370" s="3">
         <v>28430</v>
       </c>
@@ -6295,7 +6296,7 @@
         <v>5.0120296166899475E-2</v>
       </c>
     </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A371" s="2">
         <v>28460</v>
       </c>
@@ -6311,7 +6312,7 @@
         <v>4.7113690811627619E-2</v>
       </c>
     </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="372" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A372" s="3">
         <v>28491</v>
       </c>
@@ -6327,7 +6328,7 @@
         <v>4.4130582250978746E-2</v>
       </c>
     </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A373" s="2">
         <v>28522</v>
       </c>
@@ -6343,7 +6344,7 @@
         <v>4.1170696113854294E-2</v>
       </c>
     </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A374" s="3">
         <v>28550</v>
       </c>
@@ -6359,7 +6360,7 @@
         <v>4.7791773171980925E-2</v>
       </c>
     </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="375" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A375" s="2">
         <v>28581</v>
       </c>
@@ -6375,7 +6376,7 @@
         <v>5.4328134233829019E-2</v>
       </c>
     </row>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="376" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A376" s="3">
         <v>28611</v>
       </c>
@@ -6391,7 +6392,7 @@
         <v>6.0781394862534283E-2</v>
       </c>
     </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="377" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A377" s="2">
         <v>28642</v>
       </c>
@@ -6407,7 +6408,7 @@
         <v>5.7973675968942005E-2</v>
       </c>
     </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="378" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A378" s="3">
         <v>28672</v>
       </c>
@@ -6423,7 +6424,7 @@
         <v>5.5199329702306163E-2</v>
       </c>
     </row>
-    <row r="379" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="379" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A379" s="2">
         <v>28703</v>
       </c>
@@ -6439,7 +6440,7 @@
         <v>5.2457764575845327E-2</v>
       </c>
     </row>
-    <row r="380" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="380" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A380" s="3">
         <v>28734</v>
       </c>
@@ -6455,7 +6456,7 @@
         <v>5.7165581540815386E-2</v>
       </c>
     </row>
-    <row r="381" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="381" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A381" s="2">
         <v>28764</v>
       </c>
@@ -6471,7 +6472,7 @@
         <v>6.1873329861378529E-2</v>
       </c>
     </row>
-    <row r="382" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="382" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A382" s="3">
         <v>28795</v>
       </c>
@@ -6487,7 +6488,7 @@
         <v>6.6581009539036395E-2</v>
       </c>
     </row>
-    <row r="383" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="383" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A383" s="2">
         <v>28825</v>
       </c>
@@ -6503,7 +6504,7 @@
         <v>6.6085952917540353E-2</v>
       </c>
     </row>
-    <row r="384" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="384" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A384" s="3">
         <v>28856</v>
       </c>
@@ -6519,7 +6520,7 @@
         <v>6.5591947466091746E-2</v>
       </c>
     </row>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A385" s="2">
         <v>28887</v>
       </c>
@@ -6535,7 +6536,7 @@
         <v>6.5098989840264881E-2</v>
       </c>
     </row>
-    <row r="386" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="386" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A386" s="3">
         <v>28915</v>
       </c>
@@ -6551,7 +6552,7 @@
         <v>5.1928899553352788E-2</v>
       </c>
     </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="387" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A387" s="2">
         <v>28946</v>
       </c>
@@ -6567,7 +6568,7 @@
         <v>3.908957181715228E-2</v>
       </c>
     </row>
-    <row r="388" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="388" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A388" s="3">
         <v>28976</v>
       </c>
@@ -6583,7 +6584,7 @@
         <v>2.6568700670328314E-2</v>
       </c>
     </row>
-    <row r="389" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="389" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A389" s="2">
         <v>29007</v>
       </c>
@@ -6599,7 +6600,7 @@
         <v>2.5672943988807723E-2</v>
       </c>
     </row>
-    <row r="390" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="390" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A390" s="3">
         <v>29037</v>
       </c>
@@ -6615,7 +6616,7 @@
         <v>2.4783152015594348E-2</v>
       </c>
     </row>
-    <row r="391" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="391" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A391" s="2">
         <v>29068</v>
       </c>
@@ -6631,7 +6632,7 @@
         <v>2.3899265371251505E-2</v>
       </c>
     </row>
-    <row r="392" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="392" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A392" s="3">
         <v>29099</v>
       </c>
@@ -6647,7 +6648,7 @@
         <v>2.0181853262963744E-2</v>
       </c>
     </row>
-    <row r="393" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="393" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A393" s="2">
         <v>29129</v>
       </c>
@@ -6663,7 +6664,7 @@
         <v>1.6497456941184204E-2</v>
       </c>
     </row>
-    <row r="394" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="394" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A394" s="3">
         <v>29160</v>
       </c>
@@ -6679,7 +6680,7 @@
         <v>1.2845638511357444E-2</v>
       </c>
     </row>
-    <row r="395" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="395" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A395" s="2">
         <v>29190</v>
       </c>
@@ -6695,7 +6696,7 @@
         <v>1.3300240518412609E-2</v>
       </c>
     </row>
-    <row r="396" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="396" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A396" s="3">
         <v>29221</v>
       </c>
@@ -6711,7 +6712,7 @@
         <v>1.3754298310982137E-2</v>
       </c>
     </row>
-    <row r="397" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="397" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A397" s="2">
         <v>29252</v>
       </c>
@@ -6727,7 +6728,7 @@
         <v>1.4207812865719037E-2</v>
       </c>
     </row>
-    <row r="398" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="398" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A398" s="3">
         <v>29281</v>
       </c>
@@ -6743,7 +6744,7 @@
         <v>6.8830908035286435E-3</v>
       </c>
     </row>
-    <row r="399" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="399" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A399" s="2">
         <v>29312</v>
       </c>
@@ -6759,7 +6760,7 @@
         <v>-4.3641347471694378E-4</v>
       </c>
     </row>
-    <row r="400" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="400" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A400" s="3">
         <v>29342</v>
       </c>
@@ -6775,7 +6776,7 @@
         <v>-7.7507055423842392E-3</v>
       </c>
     </row>
-    <row r="401" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="401" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A401" s="2">
         <v>29373</v>
       </c>
@@ -6791,7 +6792,7 @@
         <v>-1.0593809253494808E-2</v>
       </c>
     </row>
-    <row r="402" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="402" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A402" s="3">
         <v>29403</v>
       </c>
@@ -6807,7 +6808,7 @@
         <v>-1.3422901911653438E-2</v>
       </c>
     </row>
-    <row r="403" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="403" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A403" s="2">
         <v>29434</v>
       </c>
@@ -6823,7 +6824,7 @@
         <v>-1.6238086833745138E-2</v>
       </c>
     </row>
-    <row r="404" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="404" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A404" s="3">
         <v>29465</v>
       </c>
@@ -6839,7 +6840,7 @@
         <v>-1.0947065686263831E-2</v>
       </c>
     </row>
-    <row r="405" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="405" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A405" s="2">
         <v>29495</v>
       </c>
@@ -6855,7 +6856,7 @@
         <v>-5.66485081985235E-3</v>
       </c>
     </row>
-    <row r="406" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="406" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A406" s="3">
         <v>29526</v>
       </c>
@@ -6871,7 +6872,7 @@
         <v>-3.9142026726618538E-4</v>
       </c>
     </row>
-    <row r="407" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="407" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A407" s="2">
         <v>29556</v>
       </c>
@@ -6887,7 +6888,7 @@
         <v>5.0837694705830674E-3</v>
       </c>
     </row>
-    <row r="408" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="408" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A408" s="3">
         <v>29587</v>
       </c>
@@ -6903,7 +6904,7 @@
         <v>1.0547503023816967E-2</v>
       </c>
     </row>
-    <row r="409" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="409" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A409" s="2">
         <v>29618</v>
       </c>
@@ -6919,7 +6920,7 @@
         <v>1.5999816310917868E-2</v>
       </c>
     </row>
-    <row r="410" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="410" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A410" s="3">
         <v>29646</v>
       </c>
@@ -6935,7 +6936,7 @@
         <v>2.049908121599037E-2</v>
       </c>
     </row>
-    <row r="411" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="411" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A411" s="2">
         <v>29677</v>
       </c>
@@ -6951,7 +6952,7 @@
         <v>2.5061011123096479E-2</v>
       </c>
     </row>
-    <row r="412" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="412" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A412" s="3">
         <v>29707</v>
       </c>
@@ -6967,7 +6968,7 @@
         <v>2.9686924394553674E-2</v>
       </c>
     </row>
-    <row r="413" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="413" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A413" s="2">
         <v>29738</v>
       </c>
@@ -6983,7 +6984,7 @@
         <v>3.4206888653192186E-2</v>
       </c>
     </row>
-    <row r="414" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="414" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A414" s="3">
         <v>29768</v>
       </c>
@@ -6999,7 +7000,7 @@
         <v>3.8730437029041262E-2</v>
       </c>
     </row>
-    <row r="415" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="415" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A415" s="2">
         <v>29799</v>
       </c>
@@ -7015,7 +7016,7 @@
         <v>4.3257573786844139E-2</v>
       </c>
     </row>
-    <row r="416" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="416" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A416" s="3">
         <v>29830</v>
       </c>
@@ -7031,7 +7032,7 @@
         <v>3.3046799823863118E-2</v>
       </c>
     </row>
-    <row r="417" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="417" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A417" s="2">
         <v>29860</v>
       </c>
@@ -7047,7 +7048,7 @@
         <v>2.2961415768485104E-2</v>
       </c>
     </row>
-    <row r="418" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="418" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A418" s="3">
         <v>29891</v>
       </c>
@@ -7063,7 +7064,7 @@
         <v>1.2999126004342785E-2</v>
       </c>
     </row>
-    <row r="419" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="419" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A419" s="2">
         <v>29921</v>
       </c>
@@ -7079,7 +7080,7 @@
         <v>1.2139527577178994E-3</v>
       </c>
     </row>
-    <row r="420" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="420" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A420" s="3">
         <v>29952</v>
       </c>
@@ -7095,7 +7096,7 @@
         <v>-1.041925679625468E-2</v>
       </c>
     </row>
-    <row r="421" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="421" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A421" s="2">
         <v>29983</v>
       </c>
@@ -7111,7 +7112,7 @@
         <v>-2.1903423068408204E-2</v>
       </c>
     </row>
-    <row r="422" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="422" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A422" s="3">
         <v>30011</v>
       </c>
@@ -7127,7 +7128,7 @@
         <v>-1.7990256013535225E-2</v>
       </c>
     </row>
-    <row r="423" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="423" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A423" s="2">
         <v>30042</v>
       </c>
@@ -7143,7 +7144,7 @@
         <v>-1.4057659888823255E-2</v>
       </c>
     </row>
-    <row r="424" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="424" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A424" s="3">
         <v>30072</v>
       </c>
@@ -7159,7 +7160,7 @@
         <v>-1.0105489634705466E-2</v>
       </c>
     </row>
-    <row r="425" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="425" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A425" s="2">
         <v>30103</v>
       </c>
@@ -7175,7 +7176,7 @@
         <v>-1.5297613255517676E-2</v>
       </c>
     </row>
-    <row r="426" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="426" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A426" s="3">
         <v>30133</v>
       </c>
@@ -7191,7 +7192,7 @@
         <v>-2.044861388418269E-2</v>
       </c>
     </row>
-    <row r="427" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="427" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A427" s="2">
         <v>30164</v>
       </c>
@@ -7207,7 +7208,7 @@
         <v>-2.5558978151038962E-2</v>
       </c>
     </row>
-    <row r="428" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="428" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A428" s="3">
         <v>30195</v>
       </c>
@@ -7223,7 +7224,7 @@
         <v>-2.1876871999856121E-2</v>
       </c>
     </row>
-    <row r="429" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="429" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A429" s="2">
         <v>30225</v>
       </c>
@@ -7239,7 +7240,7 @@
         <v>-1.8167824660787785E-2</v>
       </c>
     </row>
-    <row r="430" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="430" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A430" s="3">
         <v>30256</v>
       </c>
@@ -7255,7 +7256,7 @@
         <v>-1.4431539363715747E-2</v>
       </c>
     </row>
-    <row r="431" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="431" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A431" s="2">
         <v>30286</v>
       </c>
@@ -7271,7 +7272,7 @@
         <v>-4.9492482385628308E-3</v>
       </c>
     </row>
-    <row r="432" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="432" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A432" s="3">
         <v>30317</v>
       </c>
@@ -7287,7 +7288,7 @@
         <v>4.6322781517989901E-3</v>
       </c>
     </row>
-    <row r="433" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="433" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A433" s="2">
         <v>30348</v>
       </c>
@@ -7303,7 +7304,7 @@
         <v>1.431460579571856E-2</v>
       </c>
     </row>
-    <row r="434" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="434" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A434" s="3">
         <v>30376</v>
       </c>
@@ -7319,7 +7320,7 @@
         <v>2.0456775474793128E-2</v>
       </c>
     </row>
-    <row r="435" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="435" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A435" s="2">
         <v>30407</v>
       </c>
@@ -7335,7 +7336,7 @@
         <v>2.658032154932129E-2</v>
       </c>
     </row>
-    <row r="436" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="436" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A436" s="3">
         <v>30437</v>
       </c>
@@ -7351,7 +7352,7 @@
         <v>3.2685328593721856E-2</v>
       </c>
     </row>
-    <row r="437" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="437" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A437" s="2">
         <v>30468</v>
       </c>
@@ -7367,7 +7368,7 @@
         <v>4.0893120334793455E-2</v>
       </c>
     </row>
-    <row r="438" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="438" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A438" s="3">
         <v>30498</v>
       </c>
@@ -7383,7 +7384,7 @@
         <v>4.9121884191663329E-2</v>
       </c>
     </row>
-    <row r="439" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="439" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A439" s="2">
         <v>30529</v>
       </c>
@@ -7399,7 +7400,7 @@
         <v>5.7371700647417881E-2</v>
       </c>
     </row>
-    <row r="440" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="440" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A440" s="3">
         <v>30560</v>
       </c>
@@ -7415,7 +7416,7 @@
         <v>6.4582991353960728E-2</v>
       </c>
     </row>
-    <row r="441" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="441" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A441" s="2">
         <v>30590</v>
       </c>
@@ -7431,7 +7432,7 @@
         <v>7.1792362326955295E-2</v>
       </c>
     </row>
-    <row r="442" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="442" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A442" s="3">
         <v>30621</v>
       </c>
@@ -7447,7 +7448,7 @@
         <v>7.8999814332883903E-2</v>
       </c>
     </row>
-    <row r="443" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="443" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A443" s="2">
         <v>30651</v>
       </c>
@@ -7463,7 +7464,7 @@
         <v>8.1280567072339591E-2</v>
       </c>
     </row>
-    <row r="444" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="444" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A444" s="3">
         <v>30682</v>
       </c>
@@ -7479,7 +7480,7 @@
         <v>8.3541456327445071E-2</v>
       </c>
     </row>
-    <row r="445" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="445" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A445" s="2">
         <v>30713</v>
       </c>
@@ -7495,7 +7496,7 @@
         <v>8.5782740465086021E-2</v>
       </c>
     </row>
-    <row r="446" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="446" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A446" s="3">
         <v>30742</v>
       </c>
@@ -7511,7 +7512,7 @@
         <v>8.3814974797523312E-2</v>
       </c>
     </row>
-    <row r="447" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="447" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A447" s="2">
         <v>30773</v>
       </c>
@@ -7527,7 +7528,7 @@
         <v>8.1876615403789266E-2</v>
       </c>
     </row>
-    <row r="448" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="448" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A448" s="3">
         <v>30803</v>
       </c>
@@ -7543,7 +7544,7 @@
         <v>7.9967008002006484E-2</v>
       </c>
     </row>
-    <row r="449" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="449" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A449" s="2">
         <v>30834</v>
       </c>
@@ -7559,7 +7560,7 @@
         <v>7.6265768376905893E-2</v>
       </c>
     </row>
-    <row r="450" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="450" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A450" s="3">
         <v>30864</v>
       </c>
@@ -7575,7 +7576,7 @@
         <v>7.2613206896484178E-2</v>
       </c>
     </row>
-    <row r="451" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="451" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A451" s="2">
         <v>30895</v>
       </c>
@@ -7591,7 +7592,7 @@
         <v>6.900836952300847E-2</v>
       </c>
     </row>
-    <row r="452" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="452" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A452" s="3">
         <v>30926</v>
       </c>
@@ -7607,7 +7608,7 @@
         <v>6.453058596383901E-2</v>
       </c>
     </row>
-    <row r="453" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="453" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A453" s="2">
         <v>30956</v>
       </c>
@@ -7623,7 +7624,7 @@
         <v>6.0114225712106804E-2</v>
       </c>
     </row>
-    <row r="454" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="454" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A454" s="3">
         <v>30987</v>
       </c>
@@ -7639,7 +7640,7 @@
         <v>5.5758033529916554E-2</v>
       </c>
     </row>
-    <row r="455" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="455" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A455" s="2">
         <v>31017</v>
       </c>
@@ -7655,7 +7656,7 @@
         <v>5.2311681047966227E-2</v>
       </c>
     </row>
-    <row r="456" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="456" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A456" s="3">
         <v>31048</v>
       </c>
@@ -7671,7 +7672,7 @@
         <v>4.8909662976957313E-2</v>
       </c>
     </row>
-    <row r="457" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="457" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A457" s="2">
         <v>31079</v>
       </c>
@@ -7687,7 +7688,7 @@
         <v>4.5551129297211133E-2</v>
       </c>
     </row>
-    <row r="458" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="458" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A458" s="3">
         <v>31107</v>
       </c>
@@ -7703,7 +7704,7 @@
         <v>4.2614931036727803E-2</v>
       </c>
     </row>
-    <row r="459" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="459" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A459" s="2">
         <v>31138</v>
       </c>
@@ -7719,7 +7720,7 @@
         <v>3.9712168552793588E-2</v>
       </c>
     </row>
-    <row r="460" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="460" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A460" s="3">
         <v>31168</v>
       </c>
@@ -7735,7 +7736,7 @@
         <v>3.6842273957041177E-2</v>
       </c>
     </row>
-    <row r="461" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="461" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A461" s="2">
         <v>31199</v>
       </c>
@@ -7751,7 +7752,7 @@
         <v>3.8782055828551827E-2</v>
       </c>
     </row>
-    <row r="462" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="462" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A462" s="3">
         <v>31229</v>
       </c>
@@ -7767,7 +7768,7 @@
         <v>4.0709450155420254E-2</v>
       </c>
     </row>
-    <row r="463" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="463" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A463" s="2">
         <v>31260</v>
       </c>
@@ -7783,7 +7784,7 @@
         <v>4.2624575221189398E-2</v>
       </c>
     </row>
-    <row r="464" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="464" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A464" s="3">
         <v>31291</v>
       </c>
@@ -7799,7 +7800,7 @@
         <v>4.2355720181275446E-2</v>
       </c>
     </row>
-    <row r="465" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="465" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A465" s="2">
         <v>31321</v>
       </c>
@@ -7815,7 +7816,7 @@
         <v>4.208832842104223E-2</v>
       </c>
     </row>
-    <row r="466" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="466" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A466" s="3">
         <v>31352</v>
       </c>
@@ -7831,7 +7832,7 @@
         <v>4.1822388026765737E-2</v>
       </c>
     </row>
-    <row r="467" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="467" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A467" s="2">
         <v>31382</v>
       </c>
@@ -7847,7 +7848,7 @@
         <v>4.1699215638908167E-2</v>
       </c>
     </row>
-    <row r="468" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="468" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A468" s="3">
         <v>31413</v>
       </c>
@@ -7863,7 +7864,7 @@
         <v>4.1576833907856936E-2</v>
       </c>
     </row>
-    <row r="469" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="469" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A469" s="2">
         <v>31444</v>
       </c>
@@ -7879,7 +7880,7 @@
         <v>4.1455235245001817E-2</v>
       </c>
     </row>
-    <row r="470" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="470" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A470" s="3">
         <v>31472</v>
       </c>
@@ -7895,7 +7896,7 @@
         <v>3.9966603841789974E-2</v>
       </c>
     </row>
-    <row r="471" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="471" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A471" s="2">
         <v>31503</v>
       </c>
@@ -7911,7 +7912,7 @@
         <v>3.8486659272504629E-2</v>
       </c>
     </row>
-    <row r="472" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="472" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A472" s="3">
         <v>31533</v>
       </c>
@@ -7927,7 +7928,7 @@
         <v>3.7015325720980791E-2</v>
       </c>
     </row>
-    <row r="473" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="473" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A473" s="2">
         <v>31564</v>
       </c>
@@ -7943,7 +7944,7 @@
         <v>3.505465936771434E-2</v>
       </c>
     </row>
-    <row r="474" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="474" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A474" s="3">
         <v>31594</v>
       </c>
@@ -7959,7 +7960,7 @@
         <v>3.311375304947823E-2</v>
       </c>
     </row>
-    <row r="475" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="475" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A475" s="2">
         <v>31625</v>
       </c>
@@ -7975,7 +7976,7 @@
         <v>3.1192309544910268E-2</v>
       </c>
     </row>
-    <row r="476" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="476" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A476" s="3">
         <v>31656</v>
       </c>
@@ -7991,7 +7992,7 @@
         <v>3.0485232579604747E-2</v>
       </c>
     </row>
-    <row r="477" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="477" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A477" s="2">
         <v>31686</v>
       </c>
@@ -8007,7 +8008,7 @@
         <v>2.9781642102251541E-2</v>
       </c>
     </row>
-    <row r="478" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="478" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A478" s="3">
         <v>31717</v>
       </c>
@@ -8023,7 +8024,7 @@
         <v>2.9081512389265457E-2</v>
       </c>
     </row>
-    <row r="479" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="479" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A479" s="2">
         <v>31747</v>
       </c>
@@ -8039,7 +8040,7 @@
         <v>2.8437484937794556E-2</v>
       </c>
     </row>
-    <row r="480" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="480" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A480" s="3">
         <v>31778</v>
       </c>
@@ -8055,7 +8056,7 @@
         <v>2.7797440711484739E-2</v>
       </c>
     </row>
-    <row r="481" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="481" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A481" s="2">
         <v>31809</v>
       </c>
@@ -8071,7 +8072,7 @@
         <v>2.7161342870673687E-2</v>
       </c>
     </row>
-    <row r="482" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="482" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A482" s="3">
         <v>31837</v>
       </c>
@@ -8087,7 +8088,7 @@
         <v>2.9310067852931207E-2</v>
       </c>
     </row>
-    <row r="483" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="483" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A483" s="2">
         <v>31868</v>
       </c>
@@ -8103,7 +8104,7 @@
         <v>3.1452360473782005E-2</v>
       </c>
     </row>
-    <row r="484" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="484" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A484" s="3">
         <v>31898</v>
       </c>
@@ -8119,7 +8120,7 @@
         <v>3.3588249573656623E-2</v>
       </c>
     </row>
-    <row r="485" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="485" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A485" s="2">
         <v>31929</v>
       </c>
@@ -8135,7 +8136,7 @@
         <v>3.3281149878959367E-2</v>
       </c>
     </row>
-    <row r="486" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="486" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A486" s="3">
         <v>31959</v>
       </c>
@@ -8151,7 +8152,7 @@
         <v>3.2975997124703581E-2</v>
       </c>
     </row>
-    <row r="487" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="487" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A487" s="2">
         <v>31990</v>
       </c>
@@ -8167,7 +8168,7 @@
         <v>3.2672772854671052E-2</v>
       </c>
     </row>
-    <row r="488" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="488" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A488" s="3">
         <v>32021</v>
       </c>
@@ -8183,7 +8184,7 @@
         <v>3.6727280794968481E-2</v>
       </c>
     </row>
-    <row r="489" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="489" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A489" s="2">
         <v>32051</v>
       </c>
@@ -8199,7 +8200,7 @@
         <v>4.0767323343092791E-2</v>
       </c>
     </row>
-    <row r="490" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="490" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A490" s="3">
         <v>32082</v>
       </c>
@@ -8215,7 +8216,7 @@
         <v>4.4792977774129314E-2</v>
       </c>
     </row>
-    <row r="491" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="491" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A491" s="2">
         <v>32112</v>
       </c>
@@ -8231,7 +8232,7 @@
         <v>4.3999008723775025E-2</v>
       </c>
     </row>
-    <row r="492" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="492" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A492" s="3">
         <v>32143</v>
       </c>
@@ -8247,7 +8248,7 @@
         <v>4.3208964462901983E-2</v>
       </c>
     </row>
-    <row r="493" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="493" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A493" s="2">
         <v>32174</v>
       </c>
@@ -8263,7 +8264,7 @@
         <v>4.24228159614237E-2</v>
       </c>
     </row>
-    <row r="494" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="494" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A494" s="3">
         <v>32203</v>
       </c>
@@ -8279,7 +8280,7 @@
         <v>4.3236348373793684E-2</v>
       </c>
     </row>
-    <row r="495" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="495" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A495" s="2">
         <v>32234</v>
       </c>
@@ -8295,7 +8296,7 @@
         <v>4.4044071116956657E-2</v>
       </c>
     </row>
-    <row r="496" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="496" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A496" s="3">
         <v>32264</v>
       </c>
@@ -8311,7 +8312,7 @@
         <v>4.484604620227356E-2</v>
       </c>
     </row>
-    <row r="497" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="497" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A497" s="2">
         <v>32295</v>
       </c>
@@ -8327,7 +8328,7 @@
         <v>4.3867823106382521E-2</v>
       </c>
     </row>
-    <row r="498" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="498" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A498" s="3">
         <v>32325</v>
       </c>
@@ -8343,7 +8344,7 @@
         <v>4.2895225592569558E-2</v>
       </c>
     </row>
-    <row r="499" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="499" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A499" s="2">
         <v>32356</v>
       </c>
@@ -8359,7 +8360,7 @@
         <v>4.1928205272430713E-2</v>
       </c>
     </row>
-    <row r="500" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="500" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A500" s="3">
         <v>32387</v>
       </c>
@@ -8375,7 +8376,7 @@
         <v>4.06002043232895E-2</v>
       </c>
     </row>
-    <row r="501" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="501" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A501" s="2">
         <v>32417</v>
       </c>
@@ -8391,7 +8392,7 @@
         <v>3.9287232979707799E-2</v>
       </c>
     </row>
-    <row r="502" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="502" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A502" s="3">
         <v>32448</v>
       </c>
@@ -8407,7 +8408,7 @@
         <v>3.7989037531788027E-2</v>
       </c>
     </row>
-    <row r="503" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="503" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A503" s="2">
         <v>32478</v>
       </c>
@@ -8423,7 +8424,7 @@
         <v>3.9715962956957139E-2</v>
       </c>
     </row>
-    <row r="504" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="504" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A504" s="3">
         <v>32509</v>
       </c>
@@ -8439,7 +8440,7 @@
         <v>4.1436960963214378E-2</v>
       </c>
     </row>
-    <row r="505" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="505" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A505" s="2">
         <v>32540</v>
       </c>
@@ -8455,7 +8456,7 @@
         <v>4.3152062015774019E-2</v>
       </c>
     </row>
-    <row r="506" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="506" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A506" s="3">
         <v>32568</v>
       </c>
@@ -8471,7 +8472,7 @@
         <v>4.1245884835376327E-2</v>
       </c>
     </row>
-    <row r="507" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="507" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A507" s="2">
         <v>32599</v>
       </c>
@@ -8487,7 +8488,7 @@
         <v>3.935625910458198E-2</v>
       </c>
     </row>
-    <row r="508" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="508" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A508" s="3">
         <v>32629</v>
       </c>
@@ -8503,7 +8504,7 @@
         <v>3.7482970179445199E-2</v>
       </c>
     </row>
-    <row r="509" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="509" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A509" s="2">
         <v>32660</v>
       </c>
@@ -8519,7 +8520,7 @@
         <v>3.8017792293674406E-2</v>
       </c>
     </row>
-    <row r="510" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="510" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A510" s="3">
         <v>32690</v>
       </c>
@@ -8535,7 +8536,7 @@
         <v>3.8550533418880331E-2</v>
       </c>
     </row>
-    <row r="511" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="511" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A511" s="2">
         <v>32721</v>
       </c>
@@ -8551,7 +8552,7 @@
         <v>3.908120567714899E-2</v>
       </c>
     </row>
-    <row r="512" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="512" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A512" s="3">
         <v>32752</v>
       </c>
@@ -8567,7 +8568,7 @@
         <v>3.5165850445621892E-2</v>
       </c>
     </row>
-    <row r="513" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="513" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A513" s="2">
         <v>32782</v>
       </c>
@@ -8583,7 +8584,7 @@
         <v>3.1284970258361279E-2</v>
       </c>
     </row>
-    <row r="514" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="514" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A514" s="3">
         <v>32813</v>
       </c>
@@ -8599,7 +8600,7 @@
         <v>2.7438111777549921E-2</v>
       </c>
     </row>
-    <row r="515" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="515" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A515" s="2">
         <v>32843</v>
       </c>
@@ -8615,7 +8616,7 @@
         <v>2.7698158210064491E-2</v>
       </c>
     </row>
-    <row r="516" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="516" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A516" s="3">
         <v>32874</v>
       </c>
@@ -8631,7 +8632,7 @@
         <v>2.7956454081073081E-2</v>
       </c>
     </row>
-    <row r="517" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="517" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A517" s="2">
         <v>32905</v>
       </c>
@@ -8647,7 +8648,7 @@
         <v>2.8213017007731121E-2</v>
       </c>
     </row>
-    <row r="518" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="518" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A518" s="3">
         <v>32933</v>
       </c>
@@ -8663,7 +8664,7 @@
         <v>2.6844311679337363E-2</v>
       </c>
     </row>
-    <row r="519" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="519" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A519" s="2">
         <v>32964</v>
       </c>
@@ -8679,7 +8680,7 @@
         <v>2.5482535694658404E-2</v>
       </c>
     </row>
-    <row r="520" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="520" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A520" s="3">
         <v>32994</v>
       </c>
@@ -8695,7 +8696,7 @@
         <v>2.4127636564784692E-2</v>
       </c>
     </row>
-    <row r="521" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="521" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A521" s="2">
         <v>33025</v>
       </c>
@@ -8711,7 +8712,7 @@
         <v>2.1831212981370973E-2</v>
       </c>
     </row>
-    <row r="522" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="522" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A522" s="3">
         <v>33055</v>
       </c>
@@ -8727,7 +8728,7 @@
         <v>1.9546076156659323E-2</v>
       </c>
     </row>
-    <row r="523" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="523" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A523" s="2">
         <v>33086</v>
       </c>
@@ -8743,7 +8744,7 @@
         <v>1.7272143084210042E-2</v>
       </c>
     </row>
-    <row r="524" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="524" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A524" s="3">
         <v>33117</v>
       </c>
@@ -8759,7 +8760,7 @@
         <v>1.3519428574189307E-2</v>
       </c>
     </row>
-    <row r="525" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="525" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A525" s="2">
         <v>33147</v>
       </c>
@@ -8775,7 +8776,7 @@
         <v>9.7716373320691548E-3</v>
       </c>
     </row>
-    <row r="526" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="526" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A526" s="3">
         <v>33178</v>
       </c>
@@ -8791,7 +8792,7 @@
         <v>6.0287596757870564E-3</v>
       </c>
     </row>
-    <row r="527" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="527" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A527" s="2">
         <v>33208</v>
       </c>
@@ -8807,7 +8808,7 @@
         <v>8.142779929138775E-4</v>
       </c>
     </row>
-    <row r="528" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="528" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A528" s="3">
         <v>33239</v>
       </c>
@@ -8823,7 +8824,7 @@
         <v>-4.3624895464333489E-3</v>
       </c>
     </row>
-    <row r="529" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="529" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A529" s="2">
         <v>33270</v>
       </c>
@@ -8839,7 +8840,7 @@
         <v>-9.501950623666407E-3</v>
       </c>
     </row>
-    <row r="530" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="530" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A530" s="3">
         <v>33298</v>
       </c>
@@ -8855,7 +8856,7 @@
         <v>-8.1274463621378527E-3</v>
       </c>
     </row>
-    <row r="531" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="531" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A531" s="2">
         <v>33329</v>
       </c>
@@ -8871,7 +8872,7 @@
         <v>-6.7562595337471347E-3</v>
       </c>
     </row>
-    <row r="532" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="532" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A532" s="3">
         <v>33359</v>
       </c>
@@ -8887,7 +8888,7 @@
         <v>-5.388378142790304E-3</v>
       </c>
     </row>
-    <row r="533" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="533" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A533" s="2">
         <v>33390</v>
       </c>
@@ -8903,7 +8904,7 @@
         <v>-3.9340026280379357E-3</v>
       </c>
     </row>
-    <row r="534" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="534" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A534" s="3">
         <v>33420</v>
       </c>
@@ -8919,7 +8920,7 @@
         <v>-2.4802718227790064E-3</v>
       </c>
     </row>
-    <row r="535" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="535" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A535" s="2">
         <v>33451</v>
       </c>
@@ -8935,7 +8936,7 @@
         <v>-1.0271852984184444E-3</v>
       </c>
     </row>
-    <row r="536" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="536" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A536" s="3">
         <v>33482</v>
       </c>
@@ -8951,7 +8952,7 @@
         <v>3.1775242454314943E-3</v>
       </c>
     </row>
-    <row r="537" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="537" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A537" s="2">
         <v>33512</v>
       </c>
@@ -8967,7 +8968,7 @@
         <v>7.4079088227951657E-3</v>
       </c>
     </row>
-    <row r="538" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="538" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A538" s="3">
         <v>33543</v>
       </c>
@@ -8983,7 +8984,7 @@
         <v>1.1664204321365066E-2</v>
       </c>
     </row>
-    <row r="539" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="539" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A539" s="2">
         <v>33573</v>
       </c>
@@ -8999,7 +9000,7 @@
         <v>1.7287357366799479E-2</v>
       </c>
     </row>
-    <row r="540" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="540" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A540" s="3">
         <v>33604</v>
       </c>
@@ -9015,7 +9016,7 @@
         <v>2.2928103667460491E-2</v>
       </c>
     </row>
-    <row r="541" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="541" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A541" s="2">
         <v>33635</v>
       </c>
@@ -9031,7 +9032,7 @@
         <v>2.8586525919191606E-2</v>
       </c>
     </row>
-    <row r="542" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="542" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A542" s="3">
         <v>33664</v>
       </c>
@@ -9047,7 +9048,7 @@
         <v>2.9628294826439958E-2</v>
       </c>
     </row>
-    <row r="543" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="543" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A543" s="2">
         <v>33695</v>
       </c>
@@ -9063,7 +9064,7 @@
         <v>3.0664676491686006E-2</v>
       </c>
     </row>
-    <row r="544" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="544" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A544" s="3">
         <v>33725</v>
       </c>
@@ -9079,7 +9080,7 @@
         <v>3.1695712595280374E-2</v>
       </c>
     </row>
-    <row r="545" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="545" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A545" s="2">
         <v>33756</v>
       </c>
@@ -9095,7 +9096,7 @@
         <v>3.3353864966921408E-2</v>
       </c>
     </row>
-    <row r="546" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="546" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A546" s="3">
         <v>33786</v>
       </c>
@@ -9111,7 +9112,7 @@
         <v>3.5006450366601959E-2</v>
       </c>
     </row>
-    <row r="547" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="547" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A547" s="2">
         <v>33817</v>
       </c>
@@ -9127,7 +9128,7 @@
         <v>3.6653496782618103E-2</v>
       </c>
     </row>
-    <row r="548" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="548" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A548" s="3">
         <v>33848</v>
       </c>
@@ -9143,7 +9144,7 @@
         <v>3.905113805311522E-2</v>
       </c>
     </row>
-    <row r="549" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="549" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A549" s="2">
         <v>33878</v>
       </c>
@@ -9159,7 +9160,7 @@
         <v>4.1443221737055218E-2</v>
       </c>
     </row>
-    <row r="550" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="550" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A550" s="3">
         <v>33909</v>
       </c>
@@ -9175,7 +9176,7 @@
         <v>4.3829767135290125E-2</v>
       </c>
     </row>
-    <row r="551" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="551" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A551" s="2">
         <v>33939</v>
       </c>
@@ -9191,7 +9192,7 @@
         <v>4.0261403093072828E-2</v>
       </c>
     </row>
-    <row r="552" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="552" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A552" s="3">
         <v>33970</v>
       </c>
@@ -9207,7 +9208,7 @@
         <v>3.6721290369546349E-2</v>
       </c>
     </row>
-    <row r="553" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="553" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A553" s="2">
         <v>34001</v>
       </c>
@@ -9223,7 +9224,7 @@
         <v>3.3209094782169685E-2</v>
       </c>
     </row>
-    <row r="554" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="554" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A554" s="3">
         <v>34029</v>
       </c>
@@ -9239,7 +9240,7 @@
         <v>3.1486645637227487E-2</v>
       </c>
     </row>
-    <row r="555" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="555" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A555" s="2">
         <v>34060</v>
       </c>
@@ -9255,7 +9256,7 @@
         <v>2.9776558748565093E-2</v>
       </c>
     </row>
-    <row r="556" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="556" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A556" s="3">
         <v>34090</v>
       </c>
@@ -9271,7 +9272,7 @@
         <v>2.8078701503631745E-2</v>
       </c>
     </row>
-    <row r="557" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="557" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A557" s="2">
         <v>34121</v>
       </c>
@@ -9287,7 +9288,7 @@
         <v>2.63334367859729E-2</v>
       </c>
     </row>
-    <row r="558" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="558" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A558" s="3">
         <v>34151</v>
       </c>
@@ -9303,7 +9304,7 @@
         <v>2.4599595446487942E-2</v>
       </c>
     </row>
-    <row r="559" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="559" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A559" s="2">
         <v>34182</v>
       </c>
@@ -9319,7 +9320,7 @@
         <v>2.2877065695919026E-2</v>
       </c>
     </row>
-    <row r="560" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="560" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A560" s="3">
         <v>34213</v>
       </c>
@@ -9335,7 +9336,7 @@
         <v>2.3953985990940278E-2</v>
       </c>
     </row>
-    <row r="561" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="561" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A561" s="2">
         <v>34243</v>
       </c>
@@ -9351,7 +9352,7 @@
         <v>2.5023468642387324E-2</v>
       </c>
     </row>
-    <row r="562" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="562" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A562" s="3">
         <v>34274</v>
       </c>
@@ -9367,7 +9368,7 @@
         <v>2.6085590436127543E-2</v>
       </c>
     </row>
-    <row r="563" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="563" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A563" s="2">
         <v>34304</v>
       </c>
@@ -9383,7 +9384,7 @@
         <v>2.8829918760482069E-2</v>
       </c>
     </row>
-    <row r="564" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="564" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A564" s="3">
         <v>34335</v>
       </c>
@@ -9399,7 +9400,7 @@
         <v>3.1571187822939779E-2</v>
       </c>
     </row>
-    <row r="565" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="565" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A565" s="2">
         <v>34366</v>
       </c>
@@ -9415,7 +9416,7 @@
         <v>3.430940273615609E-2</v>
       </c>
     </row>
-    <row r="566" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="566" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A566" s="3">
         <v>34394</v>
       </c>
@@ -9431,7 +9432,7 @@
         <v>3.6968023247861692E-2</v>
       </c>
     </row>
-    <row r="567" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="567" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A567" s="2">
         <v>34425</v>
       </c>
@@ -9447,7 +9448,7 @@
         <v>3.9616360801137444E-2</v>
       </c>
     </row>
-    <row r="568" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="568" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A568" s="3">
         <v>34455</v>
       </c>
@@ -9463,7 +9464,7 @@
         <v>4.2254474939159931E-2</v>
       </c>
     </row>
-    <row r="569" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="569" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A569" s="2">
         <v>34486</v>
       </c>
@@ -9479,7 +9480,7 @@
         <v>4.2626317351326361E-2</v>
       </c>
     </row>
-    <row r="570" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="570" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A570" s="3">
         <v>34516</v>
       </c>
@@ -9495,7 +9496,7 @@
         <v>4.2996980277655389E-2</v>
       </c>
     </row>
-    <row r="571" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="571" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A571" s="2">
         <v>34547</v>
       </c>
@@ -9511,7 +9512,7 @@
         <v>4.3366469321262188E-2</v>
       </c>
     </row>
-    <row r="572" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="572" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A572" s="3">
         <v>34578</v>
       </c>
@@ -9527,7 +9528,7 @@
         <v>4.2623521485713911E-2</v>
       </c>
     </row>
-    <row r="573" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="573" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A573" s="2">
         <v>34608</v>
       </c>
@@ -9543,7 +9544,7 @@
         <v>4.1887249736949246E-2</v>
       </c>
     </row>
-    <row r="574" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="574" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A574" s="3">
         <v>34639</v>
       </c>
@@ -9559,7 +9560,7 @@
         <v>4.1157564491065148E-2</v>
       </c>
     </row>
-    <row r="575" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="575" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A575" s="2">
         <v>34669</v>
       </c>
@@ -9575,7 +9576,7 @@
         <v>3.9028480146160151E-2</v>
       </c>
     </row>
-    <row r="576" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="576" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A576" s="3">
         <v>34700</v>
       </c>
@@ -9591,7 +9592,7 @@
         <v>3.6913078448993171E-2</v>
       </c>
     </row>
-    <row r="577" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="577" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A577" s="2">
         <v>34731</v>
       </c>
@@ -9607,7 +9608,7 @@
         <v>3.4811227923887036E-2</v>
       </c>
     </row>
-    <row r="578" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="578" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A578" s="3">
         <v>34759</v>
       </c>
@@ -9623,7 +9624,7 @@
         <v>3.1182650263262352E-2</v>
       </c>
     </row>
-    <row r="579" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="579" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A579" s="2">
         <v>34790</v>
       </c>
@@ -9639,7 +9640,7 @@
         <v>2.7586558398744222E-2</v>
       </c>
     </row>
-    <row r="580" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="580" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A580" s="3">
         <v>34820</v>
       </c>
@@ -9655,7 +9656,7 @@
         <v>2.4022518018026316E-2</v>
       </c>
     </row>
-    <row r="581" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="581" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A581" s="2">
         <v>34851</v>
       </c>
@@ -9671,7 +9672,7 @@
         <v>2.4929271921194332E-2</v>
       </c>
     </row>
-    <row r="582" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="582" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A582" s="3">
         <v>34881</v>
       </c>
@@ -9687,7 +9688,7 @@
         <v>2.5832506129954028E-2</v>
       </c>
     </row>
-    <row r="583" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="583" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A583" s="2">
         <v>34912</v>
       </c>
@@ -9703,7 +9704,7 @@
         <v>2.6732241097901271E-2</v>
       </c>
     </row>
-    <row r="584" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="584" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A584" s="3">
         <v>34943</v>
       </c>
@@ -9719,7 +9720,7 @@
         <v>2.5141733983062554E-2</v>
       </c>
     </row>
-    <row r="585" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="585" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A585" s="2">
         <v>34973</v>
       </c>
@@ -9735,7 +9736,7 @@
         <v>2.3563281242884284E-2</v>
       </c>
     </row>
-    <row r="586" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="586" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A586" s="3">
         <v>35004</v>
       </c>
@@ -9751,7 +9752,7 @@
         <v>2.1996746355449796E-2</v>
       </c>
     </row>
-    <row r="587" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="587" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A587" s="2">
         <v>35034</v>
       </c>
@@ -9767,7 +9768,7 @@
         <v>2.3338032223459912E-2</v>
       </c>
     </row>
-    <row r="588" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="588" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A588" s="3">
         <v>35065</v>
       </c>
@@ -9783,7 +9784,7 @@
         <v>2.4676153380140269E-2</v>
       </c>
     </row>
-    <row r="589" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="589" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A589" s="2">
         <v>35096</v>
       </c>
@@ -9799,7 +9800,7 @@
         <v>2.6011121012811167E-2</v>
       </c>
     </row>
-    <row r="590" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="590" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A590" s="3">
         <v>35125</v>
       </c>
@@ -9815,7 +9816,7 @@
         <v>3.0690230945309756E-2</v>
       </c>
     </row>
-    <row r="591" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="591" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A591" s="2">
         <v>35156</v>
       </c>
@@ -9831,7 +9832,7 @@
         <v>3.5360052885980056E-2</v>
       </c>
     </row>
-    <row r="592" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="592" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A592" s="3">
         <v>35186</v>
       </c>
@@ -9847,7 +9848,7 @@
         <v>4.0020614462274562E-2</v>
       </c>
     </row>
-    <row r="593" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="593" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A593" s="2">
         <v>35217</v>
       </c>
@@ -9863,7 +9864,7 @@
         <v>4.0180718309389976E-2</v>
       </c>
     </row>
-    <row r="594" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="594" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A594" s="3">
         <v>35247</v>
       </c>
@@ -9879,7 +9880,7 @@
         <v>4.0339919298472339E-2</v>
       </c>
     </row>
-    <row r="595" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="595" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A595" s="2">
         <v>35278</v>
       </c>
@@ -9895,7 +9896,7 @@
         <v>4.049822504514753E-2</v>
       </c>
     </row>
-    <row r="596" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="596" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A596" s="3">
         <v>35309</v>
       </c>
@@ -9911,7 +9912,7 @@
         <v>4.1741791823634716E-2</v>
       </c>
     </row>
-    <row r="597" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="597" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A597" s="2">
         <v>35339</v>
       </c>
@@ -9927,7 +9928,7 @@
         <v>4.297975458381853E-2</v>
       </c>
     </row>
-    <row r="598" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="598" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A598" s="3">
         <v>35370</v>
       </c>
@@ -9943,7 +9944,7 @@
         <v>4.4212151121520417E-2</v>
       </c>
     </row>
-    <row r="599" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="599" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A599" s="2">
         <v>35400</v>
       </c>
@@ -9959,7 +9960,7 @@
         <v>4.3853203179452745E-2</v>
       </c>
     </row>
-    <row r="600" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="600" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A600" s="3">
         <v>35431</v>
       </c>
@@ -9975,7 +9976,7 @@
         <v>4.349603855279361E-2</v>
       </c>
     </row>
-    <row r="601" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="601" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A601" s="2">
         <v>35462</v>
       </c>
@@ -9991,7 +9992,7 @@
         <v>4.3140643984745174E-2</v>
       </c>
     </row>
-    <row r="602" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="602" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A602" s="3">
         <v>35490</v>
       </c>
@@ -10007,7 +10008,7 @@
         <v>4.3120429131307085E-2</v>
       </c>
     </row>
-    <row r="603" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="603" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A603" s="2">
         <v>35521</v>
       </c>
@@ -10023,7 +10024,7 @@
         <v>4.3100436574762167E-2</v>
       </c>
     </row>
-    <row r="604" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="604" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A604" s="3">
         <v>35551</v>
       </c>
@@ -10039,7 +10040,7 @@
         <v>4.3080662668359818E-2</v>
       </c>
     </row>
-    <row r="605" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="605" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A605" s="2">
         <v>35582</v>
       </c>
@@ -10055,7 +10056,7 @@
         <v>4.4307331745514773E-2</v>
       </c>
     </row>
-    <row r="606" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="606" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A606" s="3">
         <v>35612</v>
       </c>
@@ -10071,7 +10072,7 @@
         <v>4.5526709016682571E-2</v>
       </c>
     </row>
-    <row r="607" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="607" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A607" s="2">
         <v>35643</v>
       </c>
@@ -10087,7 +10088,7 @@
         <v>4.6738859307256304E-2</v>
       </c>
     </row>
-    <row r="608" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="608" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A608" s="3">
         <v>35674</v>
       </c>
@@ -10103,7 +10104,7 @@
         <v>4.6114493205548786E-2</v>
       </c>
     </row>
-    <row r="609" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="609" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A609" s="2">
         <v>35704</v>
       </c>
@@ -10119,7 +10120,7 @@
         <v>4.5494419592316329E-2</v>
       </c>
     </row>
-    <row r="610" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="610" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A610" s="3">
         <v>35735</v>
       </c>
@@ -10135,7 +10136,7 @@
         <v>4.4878594353207076E-2</v>
       </c>
     </row>
-    <row r="611" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="611" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A611" s="2">
         <v>35765</v>
       </c>
@@ -10151,7 +10152,7 @@
         <v>4.6108610113792518E-2</v>
       </c>
     </row>
-    <row r="612" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="612" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A612" s="3">
         <v>35796</v>
       </c>
@@ -10167,7 +10168,7 @@
         <v>4.7333354863932663E-2</v>
       </c>
     </row>
-    <row r="613" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="613" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A613" s="2">
         <v>35827</v>
       </c>
@@ -10186,7 +10187,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="614" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="614" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A614" s="3">
         <v>35855</v>
       </c>
@@ -10205,7 +10206,7 @@
         <v>0.16300000000000001</v>
       </c>
     </row>
-    <row r="615" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="615" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A615" s="2">
         <v>35886</v>
       </c>
@@ -10224,7 +10225,7 @@
         <v>0.16500000000000001</v>
       </c>
     </row>
-    <row r="616" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="616" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A616" s="3">
         <v>35916</v>
       </c>
@@ -10243,7 +10244,7 @@
         <v>0.16399999999999998</v>
       </c>
     </row>
-    <row r="617" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="617" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A617" s="2">
         <v>35947</v>
       </c>
@@ -10262,7 +10263,7 @@
         <v>0.16300000000000001</v>
       </c>
     </row>
-    <row r="618" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="618" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A618" s="3">
         <v>35977</v>
       </c>
@@ -10281,7 +10282,7 @@
         <v>0.16699999999999998</v>
       </c>
     </row>
-    <row r="619" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="619" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A619" s="2">
         <v>36008</v>
       </c>
@@ -10300,7 +10301,7 @@
         <v>0.16800000000000001</v>
       </c>
     </row>
-    <row r="620" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="620" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A620" s="3">
         <v>36039</v>
       </c>
@@ -10319,7 +10320,7 @@
         <v>0.17600000000000002</v>
       </c>
     </row>
-    <row r="621" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="621" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A621" s="2">
         <v>36069</v>
       </c>
@@ -10338,7 +10339,7 @@
         <v>0.17600000000000002</v>
       </c>
     </row>
-    <row r="622" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="622" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A622" s="3">
         <v>36100</v>
       </c>
@@ -10357,7 +10358,7 @@
         <v>0.17800000000000002</v>
       </c>
     </row>
-    <row r="623" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="623" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A623" s="2">
         <v>36130</v>
       </c>
@@ -10376,7 +10377,7 @@
         <v>0.17199999999999999</v>
       </c>
     </row>
-    <row r="624" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="624" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A624" s="3">
         <v>36161</v>
       </c>
@@ -10395,7 +10396,7 @@
         <v>0.17199999999999999</v>
       </c>
     </row>
-    <row r="625" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="625" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A625" s="2">
         <v>36192</v>
       </c>
@@ -10414,7 +10415,7 @@
         <v>0.16699999999999998</v>
       </c>
     </row>
-    <row r="626" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="626" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A626" s="3">
         <v>36220</v>
       </c>
@@ -10433,7 +10434,7 @@
         <v>0.16800000000000001</v>
       </c>
     </row>
-    <row r="627" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="627" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A627" s="2">
         <v>36251</v>
       </c>
@@ -10452,7 +10453,7 @@
         <v>0.17600000000000002</v>
       </c>
     </row>
-    <row r="628" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="628" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A628" s="3">
         <v>36281</v>
       </c>
@@ -10471,7 +10472,7 @@
         <v>0.184</v>
       </c>
     </row>
-    <row r="629" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="629" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A629" s="2">
         <v>36312</v>
       </c>
@@ -10490,7 +10491,7 @@
         <v>0.184</v>
       </c>
     </row>
-    <row r="630" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="630" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A630" s="3">
         <v>36342</v>
       </c>
@@ -10509,7 +10510,7 @@
         <v>0.18600000000000003</v>
       </c>
     </row>
-    <row r="631" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="631" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A631" s="2">
         <v>36373</v>
       </c>
@@ -10528,7 +10529,7 @@
         <v>0.183</v>
       </c>
     </row>
-    <row r="632" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="632" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A632" s="3">
         <v>36404</v>
       </c>
@@ -10547,7 +10548,7 @@
         <v>0.182</v>
       </c>
     </row>
-    <row r="633" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="633" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A633" s="2">
         <v>36434</v>
       </c>
@@ -10566,7 +10567,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="634" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="634" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A634" s="3">
         <v>36465</v>
       </c>
@@ -10585,7 +10586,7 @@
         <v>0.16800000000000001</v>
       </c>
     </row>
-    <row r="635" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="635" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A635" s="2">
         <v>36495</v>
       </c>
@@ -10604,7 +10605,7 @@
         <v>0.16600000000000001</v>
       </c>
     </row>
-    <row r="636" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="636" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A636" s="3">
         <v>36526</v>
       </c>
@@ -10623,7 +10624,7 @@
         <v>0.16200000000000001</v>
       </c>
     </row>
-    <row r="637" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="637" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A637" s="2">
         <v>36557</v>
       </c>
@@ -10642,7 +10643,7 @@
         <v>0.16600000000000001</v>
       </c>
     </row>
-    <row r="638" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="638" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A638" s="3">
         <v>36586</v>
       </c>
@@ -10661,7 +10662,7 @@
         <v>0.16899999999999998</v>
       </c>
     </row>
-    <row r="639" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="639" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A639" s="2">
         <v>36617</v>
       </c>
@@ -10680,7 +10681,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="640" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="640" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A640" s="3">
         <v>36647</v>
       </c>
@@ -10699,7 +10700,7 @@
         <v>0.16200000000000001</v>
       </c>
     </row>
-    <row r="641" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="641" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A641" s="2">
         <v>36678</v>
       </c>
@@ -10718,7 +10719,7 @@
         <v>0.16500000000000001</v>
       </c>
     </row>
-    <row r="642" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="642" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A642" s="3">
         <v>36708</v>
       </c>
@@ -10737,7 +10738,7 @@
         <v>0.17300000000000001</v>
       </c>
     </row>
-    <row r="643" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="643" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A643" s="2">
         <v>36739</v>
       </c>
@@ -10756,7 +10757,7 @@
         <v>0.17699999999999999</v>
       </c>
     </row>
-    <row r="644" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="644" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A644" s="3">
         <v>36770</v>
       </c>
@@ -10775,7 +10776,7 @@
         <v>0.17499999999999999</v>
       </c>
     </row>
-    <row r="645" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="645" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A645" s="2">
         <v>36800</v>
       </c>
@@ -10794,7 +10795,7 @@
         <v>0.16800000000000001</v>
       </c>
     </row>
-    <row r="646" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="646" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A646" s="3">
         <v>36831</v>
       </c>
@@ -10813,7 +10814,7 @@
         <v>0.16800000000000001</v>
       </c>
     </row>
-    <row r="647" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="647" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A647" s="2">
         <v>36861</v>
       </c>
@@ -10832,7 +10833,7 @@
         <v>0.16399999999999998</v>
       </c>
     </row>
-    <row r="648" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="648" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A648" s="3">
         <v>36892</v>
       </c>
@@ -10851,7 +10852,7 @@
         <v>0.16399999999999998</v>
       </c>
     </row>
-    <row r="649" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="649" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A649" s="2">
         <v>36923</v>
       </c>
@@ -10870,7 +10871,7 @@
         <v>0.17100000000000001</v>
       </c>
     </row>
-    <row r="650" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="650" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A650" s="3">
         <v>36951</v>
       </c>
@@ -10889,7 +10890,7 @@
         <v>0.17800000000000002</v>
       </c>
     </row>
-    <row r="651" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="651" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A651" s="2">
         <v>36982</v>
       </c>
@@ -10908,7 +10909,7 @@
         <v>0.184</v>
       </c>
     </row>
-    <row r="652" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="652" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A652" s="3">
         <v>37012</v>
       </c>
@@ -10927,7 +10928,7 @@
         <v>0.18100000000000002</v>
       </c>
     </row>
-    <row r="653" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="653" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A653" s="2">
         <v>37043</v>
       </c>
@@ -10946,7 +10947,7 @@
         <v>0.182</v>
       </c>
     </row>
-    <row r="654" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="654" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A654" s="3">
         <v>37073</v>
       </c>
@@ -10965,7 +10966,7 @@
         <v>0.187</v>
       </c>
     </row>
-    <row r="655" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="655" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A655" s="2">
         <v>37104</v>
       </c>
@@ -10984,7 +10985,7 @@
         <v>0.18899999999999997</v>
       </c>
     </row>
-    <row r="656" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="656" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A656" s="3">
         <v>37135</v>
       </c>
@@ -11003,7 +11004,7 @@
         <v>0.19399999999999998</v>
       </c>
     </row>
-    <row r="657" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="657" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A657" s="2">
         <v>37165</v>
       </c>
@@ -11022,7 +11023,7 @@
         <v>0.18600000000000003</v>
       </c>
     </row>
-    <row r="658" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="658" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A658" s="3">
         <v>37196</v>
       </c>
@@ -11041,7 +11042,7 @@
         <v>0.188</v>
       </c>
     </row>
-    <row r="659" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="659" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A659" s="2">
         <v>37226</v>
       </c>
@@ -11060,7 +11061,7 @@
         <v>0.18600000000000003</v>
       </c>
     </row>
-    <row r="660" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="660" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A660" s="3">
         <v>37257</v>
       </c>
@@ -11079,7 +11080,7 @@
         <v>0.191</v>
       </c>
     </row>
-    <row r="661" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="661" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A661" s="2">
         <v>37288</v>
       </c>
@@ -11098,7 +11099,7 @@
         <v>0.193</v>
       </c>
     </row>
-    <row r="662" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="662" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A662" s="3">
         <v>37316</v>
       </c>
@@ -11117,7 +11118,7 @@
         <v>0.191</v>
       </c>
     </row>
-    <row r="663" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="663" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A663" s="2">
         <v>37347</v>
       </c>
@@ -11136,7 +11137,7 @@
         <v>0.19399999999999998</v>
       </c>
     </row>
-    <row r="664" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="664" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A664" s="3">
         <v>37377</v>
       </c>
@@ -11155,7 +11156,7 @@
         <v>0.18899999999999997</v>
       </c>
     </row>
-    <row r="665" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="665" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A665" s="2">
         <v>37408</v>
       </c>
@@ -11174,7 +11175,7 @@
         <v>0.19699999999999998</v>
       </c>
     </row>
-    <row r="666" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="666" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A666" s="3">
         <v>37438</v>
       </c>
@@ -11193,7 +11194,7 @@
         <v>0.20199999999999999</v>
       </c>
     </row>
-    <row r="667" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="667" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A667" s="2">
         <v>37469</v>
       </c>
@@ -11212,7 +11213,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="668" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="668" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A668" s="3">
         <v>37500</v>
       </c>
@@ -11231,7 +11232,7 @@
         <v>0.20300000000000001</v>
       </c>
     </row>
-    <row r="669" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="669" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A669" s="2">
         <v>37530</v>
       </c>
@@ -11250,7 +11251,7 @@
         <v>0.20699999999999999</v>
       </c>
     </row>
-    <row r="670" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="670" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A670" s="3">
         <v>37561</v>
       </c>
@@ -11269,7 +11270,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="671" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="671" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A671" s="2">
         <v>37591</v>
       </c>
@@ -11288,7 +11289,7 @@
         <v>0.21899999999999997</v>
       </c>
     </row>
-    <row r="672" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="672" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A672" s="3">
         <v>37622</v>
       </c>
@@ -11307,7 +11308,7 @@
         <v>0.214</v>
       </c>
     </row>
-    <row r="673" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="673" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A673" s="2">
         <v>37653</v>
       </c>
@@ -11326,7 +11327,7 @@
         <v>0.21600000000000003</v>
       </c>
     </row>
-    <row r="674" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="674" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A674" s="3">
         <v>37681</v>
       </c>
@@ -11345,7 +11346,7 @@
         <v>0.21199999999999999</v>
       </c>
     </row>
-    <row r="675" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="675" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A675" s="2">
         <v>37712</v>
       </c>
@@ -11364,7 +11365,7 @@
         <v>0.215</v>
       </c>
     </row>
-    <row r="676" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="676" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A676" s="3">
         <v>37742</v>
       </c>
@@ -11383,7 +11384,7 @@
         <v>0.21299999999999999</v>
       </c>
     </row>
-    <row r="677" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="677" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A677" s="2">
         <v>37773</v>
       </c>
@@ -11402,7 +11403,7 @@
         <v>0.21299999999999999</v>
       </c>
     </row>
-    <row r="678" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="678" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A678" s="3">
         <v>37803</v>
       </c>
@@ -11421,7 +11422,7 @@
         <v>0.21100000000000002</v>
       </c>
     </row>
-    <row r="679" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="679" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A679" s="2">
         <v>37834</v>
       </c>
@@ -11440,7 +11441,7 @@
         <v>0.20499999999999999</v>
       </c>
     </row>
-    <row r="680" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="680" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A680" s="3">
         <v>37865</v>
       </c>
@@ -11459,7 +11460,7 @@
         <v>0.20600000000000002</v>
       </c>
     </row>
-    <row r="681" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="681" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A681" s="2">
         <v>37895</v>
       </c>
@@ -11478,7 +11479,7 @@
         <v>0.20699999999999999</v>
       </c>
     </row>
-    <row r="682" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="682" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A682" s="3">
         <v>37926</v>
       </c>
@@ -11497,7 +11498,7 @@
         <v>0.214</v>
       </c>
     </row>
-    <row r="683" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="683" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A683" s="2">
         <v>37956</v>
       </c>
@@ -11516,7 +11517,7 @@
         <v>0.22500000000000001</v>
       </c>
     </row>
-    <row r="684" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="684" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A684" s="3">
         <v>37987</v>
       </c>
@@ -11535,7 +11536,7 @@
         <v>0.22800000000000001</v>
       </c>
     </row>
-    <row r="685" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="685" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A685" s="2">
         <v>38018</v>
       </c>
@@ -11554,7 +11555,7 @@
         <v>0.222</v>
       </c>
     </row>
-    <row r="686" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="686" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A686" s="3">
         <v>38047</v>
       </c>
@@ -11573,7 +11574,7 @@
         <v>0.20699999999999999</v>
       </c>
     </row>
-    <row r="687" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="687" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A687" s="2">
         <v>38078</v>
       </c>
@@ -11592,7 +11593,7 @@
         <v>0.20699999999999999</v>
       </c>
     </row>
-    <row r="688" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="688" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A688" s="3">
         <v>38108</v>
       </c>
@@ -11611,7 +11612,7 @@
         <v>0.214</v>
       </c>
     </row>
-    <row r="689" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="689" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A689" s="2">
         <v>38139</v>
       </c>
@@ -11630,7 +11631,7 @@
         <v>0.218</v>
       </c>
     </row>
-    <row r="690" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="690" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A690" s="3">
         <v>38169</v>
       </c>
@@ -11649,7 +11650,7 @@
         <v>0.215</v>
       </c>
     </row>
-    <row r="691" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="691" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A691" s="2">
         <v>38200</v>
       </c>
@@ -11668,7 +11669,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="692" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="692" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A692" s="3">
         <v>38231</v>
       </c>
@@ -11687,7 +11688,7 @@
         <v>0.192</v>
       </c>
     </row>
-    <row r="693" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="693" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A693" s="2">
         <v>38261</v>
       </c>
@@ -11706,7 +11707,7 @@
         <v>0.19899999999999998</v>
       </c>
     </row>
-    <row r="694" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="694" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A694" s="3">
         <v>38292</v>
       </c>
@@ -11725,7 +11726,7 @@
         <v>0.20300000000000001</v>
       </c>
     </row>
-    <row r="695" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="695" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A695" s="2">
         <v>38322</v>
       </c>
@@ -11744,7 +11745,7 @@
         <v>0.19899999999999998</v>
       </c>
     </row>
-    <row r="696" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="696" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A696" s="3">
         <v>38353</v>
       </c>
@@ -11763,7 +11764,7 @@
         <v>0.182</v>
       </c>
     </row>
-    <row r="697" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="697" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A697" s="2">
         <v>38384</v>
       </c>
@@ -11782,7 +11783,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="698" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="698" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A698" s="3">
         <v>38412</v>
       </c>
@@ -11801,7 +11802,7 @@
         <v>0.18600000000000003</v>
       </c>
     </row>
-    <row r="699" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="699" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A699" s="2">
         <v>38443</v>
       </c>
@@ -11820,7 +11821,7 @@
         <v>0.19899999999999998</v>
       </c>
     </row>
-    <row r="700" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="700" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A700" s="3">
         <v>38473</v>
       </c>
@@ -11839,7 +11840,7 @@
         <v>0.20300000000000001</v>
       </c>
     </row>
-    <row r="701" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="701" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A701" s="2">
         <v>38504</v>
       </c>
@@ -11858,7 +11859,7 @@
         <v>0.20300000000000001</v>
       </c>
     </row>
-    <row r="702" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="702" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A702" s="3">
         <v>38534</v>
       </c>
@@ -11877,7 +11878,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="703" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="703" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A703" s="2">
         <v>38565</v>
       </c>
@@ -11896,7 +11897,7 @@
         <v>0.187</v>
       </c>
     </row>
-    <row r="704" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="704" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A704" s="3">
         <v>38596</v>
       </c>
@@ -11915,7 +11916,7 @@
         <v>0.185</v>
       </c>
     </row>
-    <row r="705" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="705" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A705" s="2">
         <v>38626</v>
       </c>
@@ -11934,7 +11935,7 @@
         <v>0.183</v>
       </c>
     </row>
-    <row r="706" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="706" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A706" s="3">
         <v>38657</v>
       </c>
@@ -11953,7 +11954,7 @@
         <v>0.18100000000000002</v>
       </c>
     </row>
-    <row r="707" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="707" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A707" s="2">
         <v>38687</v>
       </c>
@@ -11972,7 +11973,7 @@
         <v>0.17499999999999999</v>
       </c>
     </row>
-    <row r="708" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="708" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A708" s="3">
         <v>38718</v>
       </c>
@@ -11991,7 +11992,7 @@
         <v>0.17800000000000002</v>
       </c>
     </row>
-    <row r="709" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="709" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A709" s="2">
         <v>38749</v>
       </c>
@@ -12010,7 +12011,7 @@
         <v>0.18600000000000003</v>
       </c>
     </row>
-    <row r="710" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="710" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A710" s="3">
         <v>38777</v>
       </c>
@@ -12029,7 +12030,7 @@
         <v>0.183</v>
       </c>
     </row>
-    <row r="711" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="711" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A711" s="2">
         <v>38808</v>
       </c>
@@ -12048,7 +12049,7 @@
         <v>0.185</v>
       </c>
     </row>
-    <row r="712" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="712" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A712" s="3">
         <v>38838</v>
       </c>
@@ -12067,7 +12068,7 @@
         <v>0.183</v>
       </c>
     </row>
-    <row r="713" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="713" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A713" s="2">
         <v>38869</v>
       </c>
@@ -12086,7 +12087,7 @@
         <v>0.185</v>
       </c>
     </row>
-    <row r="714" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="714" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A714" s="3">
         <v>38899</v>
       </c>
@@ -12105,7 +12106,7 @@
         <v>0.17699999999999999</v>
       </c>
     </row>
-    <row r="715" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="715" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A715" s="2">
         <v>38930</v>
       </c>
@@ -12124,7 +12125,7 @@
         <v>0.161</v>
       </c>
     </row>
-    <row r="716" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="716" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A716" s="3">
         <v>38961</v>
       </c>
@@ -12143,7 +12144,7 @@
         <v>0.16899999999999998</v>
       </c>
     </row>
-    <row r="717" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="717" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A717" s="2">
         <v>38991</v>
       </c>
@@ -12162,7 +12163,7 @@
         <v>0.17199999999999999</v>
       </c>
     </row>
-    <row r="718" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="718" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A718" s="3">
         <v>39022</v>
       </c>
@@ -12181,7 +12182,7 @@
         <v>0.183</v>
       </c>
     </row>
-    <row r="719" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="719" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A719" s="2">
         <v>39052</v>
       </c>
@@ -12200,7 +12201,7 @@
         <v>0.17600000000000002</v>
       </c>
     </row>
-    <row r="720" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="720" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A720" s="3">
         <v>39083</v>
       </c>
@@ -12219,7 +12220,7 @@
         <v>0.17399999999999999</v>
       </c>
     </row>
-    <row r="721" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="721" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A721" s="2">
         <v>39114</v>
       </c>
@@ -12238,7 +12239,7 @@
         <v>0.16300000000000001</v>
       </c>
     </row>
-    <row r="722" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="722" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A722" s="3">
         <v>39142</v>
       </c>
@@ -12257,7 +12258,7 @@
         <v>0.16699999999999998</v>
       </c>
     </row>
-    <row r="723" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="723" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A723" s="2">
         <v>39173</v>
       </c>
@@ -12276,7 +12277,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="724" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="724" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A724" s="3">
         <v>39203</v>
       </c>
@@ -12295,7 +12296,7 @@
         <v>0.16200000000000001</v>
       </c>
     </row>
-    <row r="725" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="725" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A725" s="2">
         <v>39234</v>
       </c>
@@ -12314,7 +12315,7 @@
         <v>0.16399999999999998</v>
       </c>
     </row>
-    <row r="726" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="726" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A726" s="3">
         <v>39264</v>
       </c>
@@ -12333,7 +12334,7 @@
         <v>0.17199999999999999</v>
       </c>
     </row>
-    <row r="727" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="727" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A727" s="2">
         <v>39295</v>
       </c>
@@ -12352,7 +12353,7 @@
         <v>0.183</v>
       </c>
     </row>
-    <row r="728" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="728" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A728" s="3">
         <v>39326</v>
       </c>
@@ -12371,7 +12372,7 @@
         <v>0.17600000000000002</v>
       </c>
     </row>
-    <row r="729" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="729" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A729" s="2">
         <v>39356</v>
       </c>
@@ -12390,7 +12391,7 @@
         <v>0.17600000000000002</v>
       </c>
     </row>
-    <row r="730" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="730" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A730" s="3">
         <v>39387</v>
       </c>
@@ -12409,7 +12410,7 @@
         <v>0.16600000000000001</v>
       </c>
     </row>
-    <row r="731" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="731" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A731" s="2">
         <v>39417</v>
       </c>
@@ -12428,7 +12429,7 @@
         <v>0.17300000000000001</v>
       </c>
     </row>
-    <row r="732" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="732" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A732" s="3">
         <v>39448</v>
       </c>
@@ -12447,7 +12448,7 @@
         <v>0.17399999999999999</v>
       </c>
     </row>
-    <row r="733" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="733" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A733" s="2">
         <v>39479</v>
       </c>
@@ -12466,7 +12467,7 @@
         <v>0.184</v>
       </c>
     </row>
-    <row r="734" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="734" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A734" s="3">
         <v>39508</v>
       </c>
@@ -12485,7 +12486,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="735" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="735" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A735" s="2">
         <v>39539</v>
       </c>
@@ -12504,7 +12505,7 @@
         <v>0.18600000000000003</v>
       </c>
     </row>
-    <row r="736" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="736" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A736" s="3">
         <v>39569</v>
       </c>
@@ -12523,7 +12524,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="737" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="737" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A737" s="2">
         <v>39600</v>
       </c>
@@ -12542,7 +12543,7 @@
         <v>0.188</v>
       </c>
     </row>
-    <row r="738" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="738" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A738" s="3">
         <v>39630</v>
       </c>
@@ -12561,7 +12562,7 @@
         <v>0.17800000000000002</v>
       </c>
     </row>
-    <row r="739" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="739" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A739" s="2">
         <v>39661</v>
       </c>
@@ -12580,7 +12581,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="740" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="740" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A740" s="3">
         <v>39692</v>
       </c>
@@ -12599,7 +12600,7 @@
         <v>0.17300000000000001</v>
       </c>
     </row>
-    <row r="741" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="741" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A741" s="2">
         <v>39722</v>
       </c>
@@ -12618,7 +12619,7 @@
         <v>0.185</v>
       </c>
     </row>
-    <row r="742" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="742" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A742" s="3">
         <v>39753</v>
       </c>
@@ -12637,7 +12638,7 @@
         <v>0.193</v>
       </c>
     </row>
-    <row r="743" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="743" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A743" s="2">
         <v>39783</v>
       </c>
@@ -12656,7 +12657,7 @@
         <v>0.20199999999999999</v>
       </c>
     </row>
-    <row r="744" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="744" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A744" s="3">
         <v>39814</v>
       </c>
@@ -12675,7 +12676,7 @@
         <v>0.20199999999999999</v>
       </c>
     </row>
-    <row r="745" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="745" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A745" s="2">
         <v>39845</v>
       </c>
@@ -12694,7 +12695,7 @@
         <v>0.20399999999999999</v>
       </c>
     </row>
-    <row r="746" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="746" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A746" s="3">
         <v>39873</v>
       </c>
@@ -12713,7 +12714,7 @@
         <v>0.217</v>
       </c>
     </row>
-    <row r="747" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="747" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A747" s="2">
         <v>39904</v>
       </c>
@@ -12732,7 +12733,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="748" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="748" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A748" s="3">
         <v>39934</v>
       </c>
@@ -12751,7 +12752,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="749" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="749" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A749" s="2">
         <v>39965</v>
       </c>
@@ -12770,7 +12771,7 @@
         <v>0.21100000000000002</v>
       </c>
     </row>
-    <row r="750" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="750" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A750" s="3">
         <v>39995</v>
       </c>
@@ -12789,7 +12790,7 @@
         <v>0.21299999999999999</v>
       </c>
     </row>
-    <row r="751" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="751" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A751" s="2">
         <v>40026</v>
       </c>
@@ -12808,7 +12809,7 @@
         <v>0.21100000000000002</v>
       </c>
     </row>
-    <row r="752" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="752" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A752" s="3">
         <v>40057</v>
       </c>
@@ -12827,7 +12828,7 @@
         <v>0.21100000000000002</v>
       </c>
     </row>
-    <row r="753" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="753" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A753" s="2">
         <v>40087</v>
       </c>
@@ -12846,7 +12847,7 @@
         <v>0.20300000000000001</v>
       </c>
     </row>
-    <row r="754" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="754" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A754" s="3">
         <v>40118</v>
       </c>
@@ -12865,7 +12866,7 @@
         <v>0.20100000000000001</v>
       </c>
     </row>
-    <row r="755" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="755" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A755" s="2">
         <v>40148</v>
       </c>
@@ -12884,7 +12885,7 @@
         <v>0.19699999999999998</v>
       </c>
     </row>
-    <row r="756" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="756" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A756" s="3">
         <v>40179</v>
       </c>
@@ -12903,7 +12904,7 @@
         <v>0.20399999999999999</v>
       </c>
     </row>
-    <row r="757" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="757" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A757" s="2">
         <v>40210</v>
       </c>
@@ -12922,7 +12923,7 @@
         <v>0.20699999999999999</v>
       </c>
     </row>
-    <row r="758" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="758" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A758" s="3">
         <v>40238</v>
       </c>
@@ -12941,7 +12942,7 @@
         <v>0.20399999999999999</v>
       </c>
     </row>
-    <row r="759" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="759" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A759" s="2">
         <v>40269</v>
       </c>
@@ -12960,7 +12961,7 @@
         <v>0.20699999999999999</v>
       </c>
     </row>
-    <row r="760" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="760" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A760" s="3">
         <v>40299</v>
       </c>
@@ -12979,7 +12980,7 @@
         <v>0.20499999999999999</v>
       </c>
     </row>
-    <row r="761" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="761" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A761" s="2">
         <v>40330</v>
       </c>
@@ -12998,7 +12999,7 @@
         <v>0.20300000000000001</v>
       </c>
     </row>
-    <row r="762" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="762" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A762" s="3">
         <v>40360</v>
       </c>
@@ -13017,7 +13018,7 @@
         <v>0.19600000000000001</v>
       </c>
     </row>
-    <row r="763" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="763" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A763" s="2">
         <v>40391</v>
       </c>
@@ -13036,7 +13037,7 @@
         <v>0.191</v>
       </c>
     </row>
-    <row r="764" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="764" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A764" s="3">
         <v>40422</v>
       </c>
@@ -13055,7 +13056,7 @@
         <v>0.192</v>
       </c>
     </row>
-    <row r="765" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="765" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A765" s="2">
         <v>40452</v>
       </c>
@@ -13074,7 +13075,7 @@
         <v>0.191</v>
       </c>
     </row>
-    <row r="766" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="766" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A766" s="3">
         <v>40483</v>
       </c>
@@ -13093,7 +13094,7 @@
         <v>0.19600000000000001</v>
       </c>
     </row>
-    <row r="767" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="767" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A767" s="2">
         <v>40513</v>
       </c>
@@ -13112,7 +13113,7 @@
         <v>0.19800000000000001</v>
       </c>
     </row>
-    <row r="768" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="768" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A768" s="3">
         <v>40544</v>
       </c>
@@ -13131,7 +13132,7 @@
         <v>0.20199999999999999</v>
       </c>
     </row>
-    <row r="769" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="769" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A769" s="2">
         <v>40575</v>
       </c>
@@ -13150,7 +13151,7 @@
         <v>0.19899999999999998</v>
       </c>
     </row>
-    <row r="770" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="770" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A770" s="3">
         <v>40603</v>
       </c>
@@ -13169,7 +13170,7 @@
         <v>0.19800000000000001</v>
       </c>
     </row>
-    <row r="771" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="771" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A771" s="2">
         <v>40634</v>
       </c>
@@ -13188,7 +13189,7 @@
         <v>0.19600000000000001</v>
       </c>
     </row>
-    <row r="772" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="772" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A772" s="3">
         <v>40664</v>
       </c>
@@ -13207,7 +13208,7 @@
         <v>0.193</v>
       </c>
     </row>
-    <row r="773" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="773" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A773" s="2">
         <v>40695</v>
       </c>
@@ -13226,7 +13227,7 @@
         <v>0.19800000000000001</v>
       </c>
     </row>
-    <row r="774" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="774" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A774" s="3">
         <v>40725</v>
       </c>
@@ -13245,7 +13246,7 @@
         <v>0.19899999999999998</v>
       </c>
     </row>
-    <row r="775" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="775" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A775" s="2">
         <v>40756</v>
       </c>
@@ -13264,7 +13265,7 @@
         <v>0.19600000000000001</v>
       </c>
     </row>
-    <row r="776" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="776" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A776" s="3">
         <v>40787</v>
       </c>
@@ -13283,7 +13284,7 @@
         <v>0.183</v>
       </c>
     </row>
-    <row r="777" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="777" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A777" s="2">
         <v>40817</v>
       </c>
@@ -13302,7 +13303,7 @@
         <v>0.18899999999999997</v>
       </c>
     </row>
-    <row r="778" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="778" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A778" s="3">
         <v>40848</v>
       </c>
@@ -13321,7 +13322,7 @@
         <v>0.188</v>
       </c>
     </row>
-    <row r="779" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="779" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A779" s="2">
         <v>40878</v>
       </c>
@@ -13340,7 +13341,7 @@
         <v>0.19500000000000001</v>
       </c>
     </row>
-    <row r="780" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="780" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A780" s="3">
         <v>40909</v>
       </c>
@@ -13359,7 +13360,7 @@
         <v>0.18600000000000003</v>
       </c>
     </row>
-    <row r="781" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="781" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A781" s="2">
         <v>40940</v>
       </c>
@@ -13378,7 +13379,7 @@
         <v>0.191</v>
       </c>
     </row>
-    <row r="782" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="782" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A782" s="3">
         <v>40969</v>
       </c>
@@ -13397,7 +13398,7 @@
         <v>0.183</v>
       </c>
     </row>
-    <row r="783" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="783" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A783" s="2">
         <v>41000</v>
       </c>
@@ -13416,7 +13417,7 @@
         <v>0.182</v>
       </c>
     </row>
-    <row r="784" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="784" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A784" s="3">
         <v>41030</v>
       </c>
@@ -13435,7 +13436,7 @@
         <v>0.17800000000000002</v>
       </c>
     </row>
-    <row r="785" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="785" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A785" s="2">
         <v>41061</v>
       </c>
@@ -13454,7 +13455,7 @@
         <v>0.185</v>
       </c>
     </row>
-    <row r="786" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="786" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A786" s="3">
         <v>41091</v>
       </c>
@@ -13473,7 +13474,7 @@
         <v>0.184</v>
       </c>
     </row>
-    <row r="787" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="787" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A787" s="2">
         <v>41122</v>
       </c>
@@ -13492,7 +13493,7 @@
         <v>0.182</v>
       </c>
     </row>
-    <row r="788" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="788" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A788" s="3">
         <v>41153</v>
       </c>
@@ -13511,7 +13512,7 @@
         <v>0.17399999999999999</v>
       </c>
     </row>
-    <row r="789" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="789" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A789" s="2">
         <v>41183</v>
       </c>
@@ -13530,7 +13531,7 @@
         <v>0.17699999999999999</v>
       </c>
     </row>
-    <row r="790" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="790" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A790" s="3">
         <v>41214</v>
       </c>
@@ -13549,7 +13550,7 @@
         <v>0.182</v>
       </c>
     </row>
-    <row r="791" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="791" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A791" s="2">
         <v>41244</v>
       </c>
@@ -13568,7 +13569,7 @@
         <v>0.183</v>
       </c>
     </row>
-    <row r="792" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="792" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A792" s="3">
         <v>41275</v>
       </c>
@@ -13587,7 +13588,7 @@
         <v>0.184</v>
       </c>
     </row>
-    <row r="793" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="793" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A793" s="2">
         <v>41306</v>
       </c>
@@ -13606,7 +13607,7 @@
         <v>0.18100000000000002</v>
       </c>
     </row>
-    <row r="794" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="794" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A794" s="3">
         <v>41334</v>
       </c>
@@ -13625,7 +13626,7 @@
         <v>0.184</v>
       </c>
     </row>
-    <row r="795" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="795" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A795" s="2">
         <v>41365</v>
       </c>
@@ -13644,7 +13645,7 @@
         <v>0.18600000000000003</v>
       </c>
     </row>
-    <row r="796" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="796" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A796" s="3">
         <v>41395</v>
       </c>
@@ -13663,7 +13664,7 @@
         <v>0.19399999999999998</v>
       </c>
     </row>
-    <row r="797" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="797" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A797" s="2">
         <v>41426</v>
       </c>
@@ -13682,7 +13683,7 @@
         <v>0.19399999999999998</v>
       </c>
     </row>
-    <row r="798" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="798" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A798" s="3">
         <v>41456</v>
       </c>
@@ -13701,7 +13702,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="799" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="799" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A799" s="2">
         <v>41487</v>
       </c>
@@ -13720,7 +13721,7 @@
         <v>0.188</v>
       </c>
     </row>
-    <row r="800" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="800" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A800" s="3">
         <v>41518</v>
       </c>
@@ -13739,7 +13740,7 @@
         <v>0.19399999999999998</v>
       </c>
     </row>
-    <row r="801" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="801" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A801" s="2">
         <v>41548</v>
       </c>
@@ -13758,7 +13759,7 @@
         <v>0.192</v>
       </c>
     </row>
-    <row r="802" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="802" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A802" s="3">
         <v>41579</v>
       </c>
@@ -13777,7 +13778,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="803" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="803" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A803" s="2">
         <v>41609</v>
       </c>
@@ -13796,7 +13797,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="804" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="804" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A804" s="3">
         <v>41640</v>
       </c>
@@ -13815,7 +13816,7 @@
         <v>0.17199999999999999</v>
       </c>
     </row>
-    <row r="805" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="805" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A805" s="2">
         <v>41671</v>
       </c>
@@ -13834,7 +13835,7 @@
         <v>0.16899999999999998</v>
       </c>
     </row>
-    <row r="806" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="806" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A806" s="3">
         <v>41699</v>
       </c>
@@ -13853,7 +13854,7 @@
         <v>0.17699999999999999</v>
       </c>
     </row>
-    <row r="807" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="807" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A807" s="2">
         <v>41730</v>
       </c>
@@ -13872,7 +13873,7 @@
         <v>0.191</v>
       </c>
     </row>
-    <row r="808" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="808" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A808" s="3">
         <v>41760</v>
       </c>
@@ -13891,7 +13892,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="809" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="809" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A809" s="2">
         <v>41791</v>
       </c>
@@ -13910,7 +13911,7 @@
         <v>0.19500000000000001</v>
       </c>
     </row>
-    <row r="810" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="810" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A810" s="3">
         <v>41821</v>
       </c>
@@ -13929,7 +13930,7 @@
         <v>0.193</v>
       </c>
     </row>
-    <row r="811" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="811" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A811" s="2">
         <v>41852</v>
       </c>
@@ -13948,7 +13949,7 @@
         <v>0.19399999999999998</v>
       </c>
     </row>
-    <row r="812" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="812" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A812" s="3">
         <v>41883</v>
       </c>
@@ -13967,7 +13968,7 @@
         <v>0.18600000000000003</v>
       </c>
     </row>
-    <row r="813" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="813" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A813" s="2">
         <v>41913</v>
       </c>
@@ -13986,7 +13987,7 @@
         <v>0.18600000000000003</v>
       </c>
     </row>
-    <row r="814" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="814" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A814" s="3">
         <v>41944</v>
       </c>
@@ -14005,7 +14006,7 @@
         <v>0.188</v>
       </c>
     </row>
-    <row r="815" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="815" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A815" s="2">
         <v>41974</v>
       </c>
@@ -14024,7 +14025,7 @@
         <v>0.193</v>
       </c>
     </row>
-    <row r="816" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="816" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A816" s="3">
         <v>42005</v>
       </c>
@@ -14043,7 +14044,7 @@
         <v>0.19399999999999998</v>
       </c>
     </row>
-    <row r="817" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="817" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A817" s="2">
         <v>42036</v>
       </c>
@@ -14062,7 +14063,7 @@
         <v>0.19600000000000001</v>
       </c>
     </row>
-    <row r="818" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="818" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A818" s="3">
         <v>42064</v>
       </c>
@@ -14081,7 +14082,7 @@
         <v>0.19399999999999998</v>
       </c>
     </row>
-    <row r="819" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="819" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A819" s="2">
         <v>42095</v>
       </c>
@@ -14100,7 +14101,7 @@
         <v>0.19600000000000001</v>
       </c>
     </row>
-    <row r="820" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="820" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A820" s="3">
         <v>42125</v>
       </c>
@@ -14119,7 +14120,7 @@
         <v>0.20600000000000002</v>
       </c>
     </row>
-    <row r="821" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="821" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A821" s="2">
         <v>42156</v>
       </c>
@@ -14138,7 +14139,7 @@
         <v>0.21199999999999999</v>
       </c>
     </row>
-    <row r="822" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="822" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A822" s="3">
         <v>42186</v>
       </c>
@@ -14157,7 +14158,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="823" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="823" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A823" s="2">
         <v>42217</v>
       </c>
@@ -14176,7 +14177,7 @@
         <v>0.19600000000000001</v>
       </c>
     </row>
-    <row r="824" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="824" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A824" s="3">
         <v>42248</v>
       </c>
@@ -14195,7 +14196,7 @@
         <v>0.19899999999999998</v>
       </c>
     </row>
-    <row r="825" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="825" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A825" s="2">
         <v>42278</v>
       </c>
@@ -14214,7 +14215,7 @@
         <v>0.20100000000000001</v>
       </c>
     </row>
-    <row r="826" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="826" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A826" s="3">
         <v>42309</v>
       </c>
@@ -14233,7 +14234,7 @@
         <v>0.20399999999999999</v>
       </c>
     </row>
-    <row r="827" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="827" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A827" s="2">
         <v>42339</v>
       </c>
@@ -14252,7 +14253,7 @@
         <v>0.20100000000000001</v>
       </c>
     </row>
-    <row r="828" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="828" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A828" s="3">
         <v>42370</v>
       </c>
@@ -14271,7 +14272,7 @@
         <v>0.20199999999999999</v>
       </c>
     </row>
-    <row r="829" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="829" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A829" s="2">
         <v>42401</v>
       </c>
@@ -14290,7 +14291,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="830" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="830" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A830" s="3">
         <v>42430</v>
       </c>
@@ -14309,7 +14310,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="831" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="831" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A831" s="2">
         <v>42461</v>
       </c>
@@ -14328,7 +14329,7 @@
         <v>0.187</v>
       </c>
     </row>
-    <row r="832" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="832" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A832" s="3">
         <v>42491</v>
       </c>
@@ -14347,7 +14348,7 @@
         <v>0.18600000000000003</v>
       </c>
     </row>
-    <row r="833" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="833" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A833" s="2">
         <v>42522</v>
       </c>
@@ -14366,7 +14367,7 @@
         <v>0.188</v>
       </c>
     </row>
-    <row r="834" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="834" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A834" s="3">
         <v>42552</v>
       </c>
@@ -14385,7 +14386,7 @@
         <v>0.185</v>
       </c>
     </row>
-    <row r="835" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="835" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A835" s="2">
         <v>42583</v>
       </c>
@@ -14404,7 +14405,7 @@
         <v>0.191</v>
       </c>
     </row>
-    <row r="836" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="836" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A836" s="3">
         <v>42614</v>
       </c>
@@ -14423,7 +14424,7 @@
         <v>0.19899999999999998</v>
       </c>
     </row>
-    <row r="837" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="837" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A837" s="2">
         <v>42644</v>
       </c>
@@ -14442,7 +14443,7 @@
         <v>0.20499999999999999</v>
       </c>
     </row>
-    <row r="838" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="838" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A838" s="3">
         <v>42675</v>
       </c>
@@ -14461,7 +14462,7 @@
         <v>0.20499999999999999</v>
       </c>
     </row>
-    <row r="839" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="839" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A839" s="2">
         <v>42705</v>
       </c>
@@ -14480,7 +14481,7 @@
         <v>0.191</v>
       </c>
     </row>
-    <row r="840" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="840" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A840" s="3">
         <v>42736</v>
       </c>
@@ -14499,7 +14500,7 @@
         <v>0.183</v>
       </c>
     </row>
-    <row r="841" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="841" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A841" s="2">
         <v>42767</v>
       </c>
@@ -14518,7 +14519,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="842" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="842" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A842" s="3">
         <v>42795</v>
       </c>
@@ -14537,7 +14538,7 @@
         <v>0.184</v>
       </c>
     </row>
-    <row r="843" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="843" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A843" s="2">
         <v>42826</v>
       </c>
@@ -14556,7 +14557,7 @@
         <v>0.188</v>
       </c>
     </row>
-    <row r="844" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="844" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A844" s="3">
         <v>42856</v>
       </c>
@@ -14575,7 +14576,7 @@
         <v>0.187</v>
       </c>
     </row>
-    <row r="845" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="845" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A845" s="2">
         <v>42887</v>
       </c>
@@ -14594,7 +14595,7 @@
         <v>0.187</v>
       </c>
     </row>
-    <row r="846" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="846" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A846" s="3">
         <v>42917</v>
       </c>
@@ -14613,7 +14614,7 @@
         <v>0.182</v>
       </c>
     </row>
-    <row r="847" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="847" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A847" s="2">
         <v>42948</v>
       </c>
@@ -14632,7 +14633,7 @@
         <v>0.182</v>
       </c>
     </row>
-    <row r="848" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="848" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A848" s="3">
         <v>42979</v>
       </c>
@@ -14651,7 +14652,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="849" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="849" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A849" s="2">
         <v>43009</v>
       </c>
@@ -14670,7 +14671,7 @@
         <v>0.182</v>
       </c>
     </row>
-    <row r="850" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="850" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A850" s="3">
         <v>43040</v>
       </c>
@@ -14689,7 +14690,7 @@
         <v>0.17899999999999999</v>
       </c>
     </row>
-    <row r="851" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="851" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A851" s="2">
         <v>43070</v>
       </c>
@@ -14708,7 +14709,7 @@
         <v>0.184</v>
       </c>
     </row>
-    <row r="852" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="852" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A852" s="3">
         <v>43101</v>
       </c>
@@ -14727,7 +14728,7 @@
         <v>0.182</v>
       </c>
     </row>
-    <row r="853" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="853" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A853" s="2">
         <v>43132</v>
       </c>
@@ -14746,7 +14747,7 @@
         <v>0.17600000000000002</v>
       </c>
     </row>
-    <row r="854" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="854" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A854" s="3">
         <v>43160</v>
       </c>
@@ -14765,7 +14766,7 @@
         <v>0.16600000000000001</v>
       </c>
     </row>
-    <row r="855" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="855" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A855" s="2">
         <v>43191</v>
       </c>
@@ -14784,7 +14785,7 @@
         <v>0.16500000000000001</v>
       </c>
     </row>
-    <row r="856" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="856" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A856" s="3">
         <v>43221</v>
       </c>
@@ -14803,7 +14804,7 @@
         <v>0.17300000000000001</v>
       </c>
     </row>
-    <row r="857" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="857" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A857" s="2">
         <v>43252</v>
       </c>
@@ -14822,7 +14823,7 @@
         <v>0.18100000000000002</v>
       </c>
     </row>
-    <row r="858" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="858" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A858" s="3">
         <v>43282</v>
       </c>
@@ -14841,7 +14842,7 @@
         <v>0.184</v>
       </c>
     </row>
-    <row r="859" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="859" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A859" s="2">
         <v>43313</v>
       </c>
@@ -14860,7 +14861,7 @@
         <v>0.17800000000000002</v>
       </c>
     </row>
-    <row r="860" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="860" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A860" s="3">
         <v>43344</v>
       </c>
@@ -14879,7 +14880,7 @@
         <v>0.17100000000000001</v>
       </c>
     </row>
-    <row r="861" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="861" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A861" s="2">
         <v>43374</v>
       </c>
@@ -14898,7 +14899,7 @@
         <v>0.16399999999999998</v>
       </c>
     </row>
-    <row r="862" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="862" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A862" s="3">
         <v>43405</v>
       </c>
@@ -14917,7 +14918,7 @@
         <v>0.16399999999999998</v>
       </c>
     </row>
-    <row r="863" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="863" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A863" s="2">
         <v>43435</v>
       </c>
@@ -14936,7 +14937,7 @@
         <v>0.17199999999999999</v>
       </c>
     </row>
-    <row r="864" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="864" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A864" s="3">
         <v>43466</v>
       </c>
@@ -14955,7 +14956,7 @@
         <v>0.17399999999999999</v>
       </c>
     </row>
-    <row r="865" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="865" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A865" s="2">
         <v>43497</v>
       </c>
@@ -14974,7 +14975,7 @@
         <v>0.17300000000000001</v>
       </c>
     </row>
-    <row r="866" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="866" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A866" s="3">
         <v>43525</v>
       </c>
@@ -14993,7 +14994,7 @@
         <v>0.16500000000000001</v>
       </c>
     </row>
-    <row r="867" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="867" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A867" s="2">
         <v>43556</v>
       </c>
@@ -15012,7 +15013,7 @@
         <v>0.16800000000000001</v>
       </c>
     </row>
-    <row r="868" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="868" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A868" s="3">
         <v>43586</v>
       </c>
@@ -15031,7 +15032,7 @@
         <v>0.16600000000000001</v>
       </c>
     </row>
-    <row r="869" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="869" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A869" s="2">
         <v>43617</v>
       </c>
@@ -15050,7 +15051,7 @@
         <v>0.17300000000000001</v>
       </c>
     </row>
-    <row r="870" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="870" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A870" s="3">
         <v>43647</v>
       </c>
@@ -15069,7 +15070,7 @@
         <v>0.17100000000000001</v>
       </c>
     </row>
-    <row r="871" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="871" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A871" s="2">
         <v>43678</v>
       </c>
@@ -15088,7 +15089,7 @@
         <v>0.17800000000000002</v>
       </c>
     </row>
-    <row r="872" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="872" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A872" s="3">
         <v>43709</v>
       </c>
@@ -15107,7 +15108,7 @@
         <v>0.17100000000000001</v>
       </c>
     </row>
-    <row r="873" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="873" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A873" s="2">
         <v>43739</v>
       </c>
@@ -15126,7 +15127,7 @@
         <v>0.17100000000000001</v>
       </c>
     </row>
-    <row r="874" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="874" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A874" s="3">
         <v>43770</v>
       </c>
@@ -15145,17 +15146,26 @@
         <v>0.16800000000000001</v>
       </c>
     </row>
-    <row r="875" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="875" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A875" s="5">
+        <v>43800</v>
+      </c>
       <c r="E875">
         <v>0.17600000000000002</v>
       </c>
     </row>
-    <row r="876" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="876" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A876" s="5">
+        <v>43831</v>
+      </c>
       <c r="E876">
         <v>0.17399999999999999</v>
       </c>
     </row>
-    <row r="877" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="877" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A877" s="5">
+        <v>43862</v>
+      </c>
       <c r="E877">
         <v>0.17</v>
       </c>

--- a/Monthly GDP for Project.xlsx
+++ b/Monthly GDP for Project.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wesch\OneDrive\Documents\RStudio\recession_predictR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{369EA232-5A90-4FED-9507-334AB3BF0F1A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{394476E0-527A-4C6F-8F23-D4027347555C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Monthly GDP" sheetId="4" r:id="rId1"/>
@@ -414,8 +414,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{193AEE4A-BA1F-DD4C-80AC-7DE24BE31259}">
   <dimension ref="A1:E877"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A858" workbookViewId="0">
-      <selection activeCell="A878" sqref="A878"/>
+    <sheetView tabSelected="1" topLeftCell="A848" workbookViewId="0">
+      <selection activeCell="F874" sqref="F874"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -14413,7 +14413,7 @@
         <v>17764.792999999998</v>
       </c>
       <c r="C836">
-        <f t="shared" ref="C836:C874" si="26">(LN(B836)-LN(B835))*12</f>
+        <f t="shared" ref="C836:C877" si="26">(LN(B836)-LN(B835))*12</f>
         <v>2.0091798277015016E-2</v>
       </c>
       <c r="D836">
@@ -14626,7 +14626,7 @@
         <v>3.1424829752459971E-2</v>
       </c>
       <c r="D847">
-        <f t="shared" ref="D847:D874" si="27">(B847-B835)/B835</f>
+        <f t="shared" ref="D847:D877" si="27">(B847-B835)/B835</f>
         <v>2.4160260058683734E-2</v>
       </c>
       <c r="E847">
@@ -15150,6 +15150,17 @@
       <c r="A875" s="5">
         <v>43800</v>
       </c>
+      <c r="B875">
+        <v>19256.189999999999</v>
+      </c>
+      <c r="C875">
+        <f t="shared" si="26"/>
+        <v>2.1344061579902984E-2</v>
+      </c>
+      <c r="D875">
+        <f t="shared" si="27"/>
+        <v>2.2554333150713576E-2</v>
+      </c>
       <c r="E875">
         <v>0.17600000000000002</v>
       </c>
@@ -15158,6 +15169,17 @@
       <c r="A876" s="5">
         <v>43831</v>
       </c>
+      <c r="B876">
+        <v>19252.03</v>
+      </c>
+      <c r="C876">
+        <f t="shared" si="26"/>
+        <v>-2.5926932064948005E-3</v>
+      </c>
+      <c r="D876">
+        <f t="shared" si="27"/>
+        <v>1.973900612149683E-2</v>
+      </c>
       <c r="E876">
         <v>0.17399999999999999</v>
       </c>
@@ -15165,6 +15187,17 @@
     <row r="877" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A877" s="5">
         <v>43862</v>
+      </c>
+      <c r="B877">
+        <v>19370.830000000002</v>
+      </c>
+      <c r="C877">
+        <f t="shared" si="26"/>
+        <v>7.3821798591048093E-2</v>
+      </c>
+      <c r="D877">
+        <f t="shared" si="27"/>
+        <v>2.3434374963842017E-2</v>
       </c>
       <c r="E877">
         <v>0.17</v>
